--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RingPay\RingPay_APIAutomation\modified_updated\src\main\java\com\Datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0133A628-9A82-40C7-B55C-DE4FE425E47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0072D767-E59E-4B8D-823C-49F5F7C8E291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SendOtp" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="307">
   <si>
     <t>TestCases</t>
   </si>
@@ -794,126 +794,9 @@
     <t>PRMO1265511495691SLQ</t>
   </si>
   <si>
-    <t>7984758971</t>
-  </si>
-  <si>
-    <t>Gunjan</t>
-  </si>
-  <si>
-    <t>RupalChatterjee75111@example.net</t>
-  </si>
-  <si>
-    <t>1979-03-27</t>
-  </si>
-  <si>
-    <t>949287294085144</t>
-  </si>
-  <si>
-    <t>01be58280d2515e8</t>
-  </si>
-  <si>
-    <t>613844283537488</t>
-  </si>
-  <si>
-    <t>IDEP127634321679NJO2</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
     <t>ANON161752862581NDJV</t>
   </si>
   <si>
-    <t>59999461432</t>
-  </si>
-  <si>
-    <t>DCUKDF</t>
-  </si>
-  <si>
-    <t>6310941012</t>
-  </si>
-  <si>
-    <t>Babita</t>
-  </si>
-  <si>
-    <t>BahadurBawa15032@example.net</t>
-  </si>
-  <si>
-    <t>1988-08-29</t>
-  </si>
-  <si>
-    <t>822318329299574</t>
-  </si>
-  <si>
-    <t>87e96e85607ae9d9</t>
-  </si>
-  <si>
-    <t>862278162397995</t>
-  </si>
-  <si>
-    <t>IDEP6721352261656LA8</t>
-  </si>
-  <si>
-    <t>4215236</t>
-  </si>
-  <si>
-    <t>9658579089</t>
-  </si>
-  <si>
-    <t>Urmila</t>
-  </si>
-  <si>
-    <t>BishnuKant94355@example.net</t>
-  </si>
-  <si>
-    <t>1989-08-22</t>
-  </si>
-  <si>
-    <t>007920981405733</t>
-  </si>
-  <si>
-    <t>dc0cde1a276a48f2</t>
-  </si>
-  <si>
-    <t>092800669113831</t>
-  </si>
-  <si>
-    <t>IDEP27613554494152J3</t>
-  </si>
-  <si>
-    <t>4215251.0</t>
-  </si>
-  <si>
-    <t>6669636039</t>
-  </si>
-  <si>
-    <t>Indira</t>
-  </si>
-  <si>
-    <t>DhanushKhan99920@example.net</t>
-  </si>
-  <si>
-    <t>1993-12-27</t>
-  </si>
-  <si>
-    <t>247665849709681</t>
-  </si>
-  <si>
-    <t>40852b42e4c2a0c2</t>
-  </si>
-  <si>
-    <t>443543954944421</t>
-  </si>
-  <si>
-    <t>IDEP162736878644MGD8</t>
-  </si>
-  <si>
-    <t>4215259.0</t>
-  </si>
-  <si>
-    <t>9059584364</t>
-  </si>
-  <si>
     <t>Chhaya</t>
   </si>
   <si>
@@ -923,28 +806,166 @@
     <t>1970-10-27</t>
   </si>
   <si>
-    <t>585992199597296</t>
-  </si>
-  <si>
-    <t>1d018e488e5a700a</t>
-  </si>
-  <si>
-    <t>952598534813127</t>
-  </si>
-  <si>
-    <t>IDEP7216968863858BIE</t>
-  </si>
-  <si>
-    <t>4215262.0</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>59999465818</t>
-  </si>
-  <si>
-    <t>REJKCE</t>
+    <t>6796489035</t>
+  </si>
+  <si>
+    <t>Payal</t>
+  </si>
+  <si>
+    <t>EkbalPant67574@example.net</t>
+  </si>
+  <si>
+    <t>1979-03-05</t>
+  </si>
+  <si>
+    <t>741880661635648</t>
+  </si>
+  <si>
+    <t>66c2361e59fbfed5</t>
+  </si>
+  <si>
+    <t>273747813671126</t>
+  </si>
+  <si>
+    <t>IDEP261784217538YRK3</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>59999524741</t>
+  </si>
+  <si>
+    <t>QQUGEP</t>
+  </si>
+  <si>
+    <t>6410996992</t>
+  </si>
+  <si>
+    <t>Niyati</t>
+  </si>
+  <si>
+    <t>OmarMorar70703@example.net</t>
+  </si>
+  <si>
+    <t>1978-06-28</t>
+  </si>
+  <si>
+    <t>706669600189202</t>
+  </si>
+  <si>
+    <t>671d100ffa28fb49</t>
+  </si>
+  <si>
+    <t>195412881686812</t>
+  </si>
+  <si>
+    <t>IDEP617285859149GLNE</t>
+  </si>
+  <si>
+    <t>4215434</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>59999082513</t>
+  </si>
+  <si>
+    <t>JNQFTD</t>
+  </si>
+  <si>
+    <t>7160437208</t>
+  </si>
+  <si>
+    <t>Indrani</t>
+  </si>
+  <si>
+    <t>SamirKale19709@example.net</t>
+  </si>
+  <si>
+    <t>1987-12-26</t>
+  </si>
+  <si>
+    <t>907856262855561</t>
+  </si>
+  <si>
+    <t>61ab68d805d794b2</t>
+  </si>
+  <si>
+    <t>080333255688796</t>
+  </si>
+  <si>
+    <t>IDEP176285554487SCRG</t>
+  </si>
+  <si>
+    <t>4215444.0</t>
+  </si>
+  <si>
+    <t>59999956324</t>
+  </si>
+  <si>
+    <t>JMDPLI</t>
+  </si>
+  <si>
+    <t>BNPL6271858423215612</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>7917033648</t>
+  </si>
+  <si>
+    <t>Drishti</t>
+  </si>
+  <si>
+    <t>SiddharthWadhwa65862@example.net</t>
+  </si>
+  <si>
+    <t>1988-10-11</t>
+  </si>
+  <si>
+    <t>194275832697647</t>
+  </si>
+  <si>
+    <t>dc8ab396d6e78bdf</t>
+  </si>
+  <si>
+    <t>812692228323855</t>
+  </si>
+  <si>
+    <t>335577017917033648</t>
+  </si>
+  <si>
+    <t>ICIC85254926667</t>
+  </si>
+  <si>
+    <t>8223348985</t>
+  </si>
+  <si>
+    <t>Gayatri</t>
+  </si>
+  <si>
+    <t>KamleshRam67163@example.net</t>
+  </si>
+  <si>
+    <t>1977-04-18</t>
+  </si>
+  <si>
+    <t>096819588433308</t>
+  </si>
+  <si>
+    <t>3dd4ef521bb8c521</t>
+  </si>
+  <si>
+    <t>068145878753468</t>
+  </si>
+  <si>
+    <t>335577018223348985</t>
+  </si>
+  <si>
+    <t>ICIC91279907886</t>
   </si>
 </sst>
 </file>
@@ -1414,8 +1435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1444,7 +1465,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1511,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC0FC63-D631-4AC8-B268-689CB743335F}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1564,22 +1585,22 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="C2" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="D2" t="s">
         <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="F2" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="G2" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -1890,7 +1911,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1914,6 +1935,9 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>153</v>
+      </c>
+      <c r="B2" t="s">
+        <v>287</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>156</v>
@@ -2010,16 +2034,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="C2" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2122,7 +2146,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>243</v>
+        <v>296</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -2134,7 +2158,7 @@
         <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>244</v>
+        <v>297</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -2142,8 +2166,8 @@
       <c r="I2" t="s">
         <v>176</v>
       </c>
-      <c r="J2">
-        <v>100</v>
+      <c r="J2" t="n">
+        <v>109.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -2235,13 +2259,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -2527,7 +2551,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:C11"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2590,13 +2614,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -2905,13 +2929,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -2941,8 +2965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3005,13 +3029,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>290</v>
+        <v>299</v>
+      </c>
+      <c r="E2" t="s">
+        <v>300</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3320,13 +3344,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -3445,7 +3469,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>245</v>
+        <v>305</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -3457,7 +3481,7 @@
         <v>182</v>
       </c>
       <c r="G2" t="s">
-        <v>246</v>
+        <v>306</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -3465,8 +3489,8 @@
       <c r="I2" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="J2">
-        <v>100</v>
+      <c r="J2" t="n">
+        <v>109.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -3593,10 +3617,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E2" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3608,7 +3632,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3617,10 +3641,10 @@
         <v>68</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4215302.0</v>
+        <v>4215452.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -3646,7 +3670,7 @@
         <v>9892189981</v>
       </c>
       <c r="E3" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>64</v>
@@ -3658,7 +3682,7 @@
         <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>67</v>
@@ -3667,10 +3691,10 @@
         <v>68</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4215302.0</v>
+        <v>4215452.0</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>69</v>
@@ -3693,7 +3717,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3730,7 +3754,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3747,7 +3771,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3764,7 +3788,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3781,7 +3805,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3798,7 +3822,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3967,7 +3991,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -4211,7 +4235,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -4426,7 +4450,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
@@ -4509,7 +4533,7 @@
         <v>118</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>110</v>
@@ -4807,7 +4831,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -4827,7 +4851,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -4847,7 +4871,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -4867,7 +4891,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -4887,7 +4911,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -4907,7 +4931,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -4927,7 +4951,7 @@
         <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -4986,7 +5010,7 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>240</v>
@@ -5000,7 +5024,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>240</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2699" uniqueCount="846">
   <si>
     <t>TestCases</t>
   </si>
@@ -966,6 +966,1623 @@
   </si>
   <si>
     <t>ICIC91279907886</t>
+  </si>
+  <si>
+    <t>6516852973</t>
+  </si>
+  <si>
+    <t>Aishwarya</t>
+  </si>
+  <si>
+    <t>NaseerGour13959@example.net</t>
+  </si>
+  <si>
+    <t>1991-09-16</t>
+  </si>
+  <si>
+    <t>485445720202952</t>
+  </si>
+  <si>
+    <t>928c369144276780</t>
+  </si>
+  <si>
+    <t>451326405303085</t>
+  </si>
+  <si>
+    <t>IDEP172611132788Q7M9</t>
+  </si>
+  <si>
+    <t>4215452.0</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>59999478283</t>
+  </si>
+  <si>
+    <t>TCMUNG</t>
+  </si>
+  <si>
+    <t>BNPL6721114383332765</t>
+  </si>
+  <si>
+    <t>109.0</t>
+  </si>
+  <si>
+    <t>9132146247</t>
+  </si>
+  <si>
+    <t>Hira</t>
+  </si>
+  <si>
+    <t>JatinAggarwal70111@example.net</t>
+  </si>
+  <si>
+    <t>1988-05-20</t>
+  </si>
+  <si>
+    <t>231586290522670</t>
+  </si>
+  <si>
+    <t>0055881bb90dbe6b</t>
+  </si>
+  <si>
+    <t>513305255468723</t>
+  </si>
+  <si>
+    <t>335577019132146247</t>
+  </si>
+  <si>
+    <t>ICIC95790497153</t>
+  </si>
+  <si>
+    <t>6405528423</t>
+  </si>
+  <si>
+    <t>Isha</t>
+  </si>
+  <si>
+    <t>CharandeepVarma92608@example.net</t>
+  </si>
+  <si>
+    <t>1975-10-05</t>
+  </si>
+  <si>
+    <t>050273964252052</t>
+  </si>
+  <si>
+    <t>1b69a15430933ed8</t>
+  </si>
+  <si>
+    <t>748788011135099</t>
+  </si>
+  <si>
+    <t>335577016405528423</t>
+  </si>
+  <si>
+    <t>ICIC83964233229</t>
+  </si>
+  <si>
+    <t>8855256894</t>
+  </si>
+  <si>
+    <t>Yamini</t>
+  </si>
+  <si>
+    <t>SushantBassi76646@example.net</t>
+  </si>
+  <si>
+    <t>1971-07-18</t>
+  </si>
+  <si>
+    <t>210916440734070</t>
+  </si>
+  <si>
+    <t>88a787da902390a4</t>
+  </si>
+  <si>
+    <t>087998808274881</t>
+  </si>
+  <si>
+    <t>6792032554</t>
+  </si>
+  <si>
+    <t>Bhanupriya</t>
+  </si>
+  <si>
+    <t>AadilMukhopadhyay95405@example.net</t>
+  </si>
+  <si>
+    <t>1975-08-23</t>
+  </si>
+  <si>
+    <t>920329257558213</t>
+  </si>
+  <si>
+    <t>e67d6fb181b91b28</t>
+  </si>
+  <si>
+    <t>143096835090222</t>
+  </si>
+  <si>
+    <t>IDEP7162184851929648</t>
+  </si>
+  <si>
+    <t>4215500.0</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>59999119909</t>
+  </si>
+  <si>
+    <t>PPRNNT</t>
+  </si>
+  <si>
+    <t>BNPL2761198341964312</t>
+  </si>
+  <si>
+    <t>59999091893</t>
+  </si>
+  <si>
+    <t>UKKMHS</t>
+  </si>
+  <si>
+    <t>59999440664</t>
+  </si>
+  <si>
+    <t>KMUKCF</t>
+  </si>
+  <si>
+    <t>59999407967</t>
+  </si>
+  <si>
+    <t>AHIBKK</t>
+  </si>
+  <si>
+    <t>59999783391</t>
+  </si>
+  <si>
+    <t>ALEUHS</t>
+  </si>
+  <si>
+    <t>59999659691</t>
+  </si>
+  <si>
+    <t>NRSGUA</t>
+  </si>
+  <si>
+    <t>59999819822</t>
+  </si>
+  <si>
+    <t>RQRDBC</t>
+  </si>
+  <si>
+    <t>59999366628</t>
+  </si>
+  <si>
+    <t>JPOSJO</t>
+  </si>
+  <si>
+    <t>59999797741</t>
+  </si>
+  <si>
+    <t>ULDQFP</t>
+  </si>
+  <si>
+    <t>59999889290</t>
+  </si>
+  <si>
+    <t>JSONKQ</t>
+  </si>
+  <si>
+    <t>143.0</t>
+  </si>
+  <si>
+    <t>6378472393</t>
+  </si>
+  <si>
+    <t>Urmi</t>
+  </si>
+  <si>
+    <t>BharatKhatri73056@example.net</t>
+  </si>
+  <si>
+    <t>1976-07-24</t>
+  </si>
+  <si>
+    <t>334064215542682</t>
+  </si>
+  <si>
+    <t>30a38f197f009d46</t>
+  </si>
+  <si>
+    <t>076196148975704</t>
+  </si>
+  <si>
+    <t>335577016378472393</t>
+  </si>
+  <si>
+    <t>ICIC92966143692</t>
+  </si>
+  <si>
+    <t>9046557019</t>
+  </si>
+  <si>
+    <t>Gowri</t>
+  </si>
+  <si>
+    <t>DhirajNatarajan18642@example.net</t>
+  </si>
+  <si>
+    <t>1989-09-11</t>
+  </si>
+  <si>
+    <t>901930129314868</t>
+  </si>
+  <si>
+    <t>d84df402fe94ffda</t>
+  </si>
+  <si>
+    <t>501944136689604</t>
+  </si>
+  <si>
+    <t>335577019046557019</t>
+  </si>
+  <si>
+    <t>ICIC84801061818</t>
+  </si>
+  <si>
+    <t>7167431219</t>
+  </si>
+  <si>
+    <t>Mona</t>
+  </si>
+  <si>
+    <t>GauravRay53923@example.net</t>
+  </si>
+  <si>
+    <t>1979-09-20</t>
+  </si>
+  <si>
+    <t>241058694320505</t>
+  </si>
+  <si>
+    <t>7dc11779db6b8844</t>
+  </si>
+  <si>
+    <t>818192494225276</t>
+  </si>
+  <si>
+    <t>IDEP176388678783PWDQ</t>
+  </si>
+  <si>
+    <t>4215633.0</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>59999794558</t>
+  </si>
+  <si>
+    <t>PDNLRQ</t>
+  </si>
+  <si>
+    <t>BNPL3716812283421694</t>
+  </si>
+  <si>
+    <t>59999114263</t>
+  </si>
+  <si>
+    <t>EHTEBL</t>
+  </si>
+  <si>
+    <t>59999856881</t>
+  </si>
+  <si>
+    <t>IKOICC</t>
+  </si>
+  <si>
+    <t>59999646127</t>
+  </si>
+  <si>
+    <t>SCKFJD</t>
+  </si>
+  <si>
+    <t>59999949457</t>
+  </si>
+  <si>
+    <t>AOJDJJ</t>
+  </si>
+  <si>
+    <t>59999565879</t>
+  </si>
+  <si>
+    <t>FKNNFG</t>
+  </si>
+  <si>
+    <t>59999228598</t>
+  </si>
+  <si>
+    <t>PCAKNG</t>
+  </si>
+  <si>
+    <t>59999204341</t>
+  </si>
+  <si>
+    <t>UFHPQP</t>
+  </si>
+  <si>
+    <t>59999208938</t>
+  </si>
+  <si>
+    <t>QCTCMB</t>
+  </si>
+  <si>
+    <t>59999793623</t>
+  </si>
+  <si>
+    <t>RFCNKO</t>
+  </si>
+  <si>
+    <t>151.0</t>
+  </si>
+  <si>
+    <t>7457786742</t>
+  </si>
+  <si>
+    <t>Savita</t>
+  </si>
+  <si>
+    <t>DaanishBhagat88857@example.net</t>
+  </si>
+  <si>
+    <t>1995-05-21</t>
+  </si>
+  <si>
+    <t>713932971522133</t>
+  </si>
+  <si>
+    <t>d00089255993f0e2</t>
+  </si>
+  <si>
+    <t>699307238763481</t>
+  </si>
+  <si>
+    <t>335577017457786742</t>
+  </si>
+  <si>
+    <t>ICIC95964819065</t>
+  </si>
+  <si>
+    <t>6896581002</t>
+  </si>
+  <si>
+    <t>Gunjan</t>
+  </si>
+  <si>
+    <t>BharatRamaswamy69870@example.net</t>
+  </si>
+  <si>
+    <t>1987-06-10</t>
+  </si>
+  <si>
+    <t>759454751801905</t>
+  </si>
+  <si>
+    <t>482230e74e999a37</t>
+  </si>
+  <si>
+    <t>356190365260982</t>
+  </si>
+  <si>
+    <t>335577016896581002</t>
+  </si>
+  <si>
+    <t>ICIC97725671947</t>
+  </si>
+  <si>
+    <t>7149837855</t>
+  </si>
+  <si>
+    <t>Sabina</t>
+  </si>
+  <si>
+    <t>AnilSachar86289@example.net</t>
+  </si>
+  <si>
+    <t>1992-12-18</t>
+  </si>
+  <si>
+    <t>122242331345802</t>
+  </si>
+  <si>
+    <t>88fd8614a02d3e4a</t>
+  </si>
+  <si>
+    <t>929843288861249</t>
+  </si>
+  <si>
+    <t>IDEP6137847893428T5K</t>
+  </si>
+  <si>
+    <t>4215966.0</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>59999906264</t>
+  </si>
+  <si>
+    <t>ETRNBE</t>
+  </si>
+  <si>
+    <t>BNPL1763852971599124</t>
+  </si>
+  <si>
+    <t>59999829118</t>
+  </si>
+  <si>
+    <t>KDUDFO</t>
+  </si>
+  <si>
+    <t>59999058694</t>
+  </si>
+  <si>
+    <t>SCPQKD</t>
+  </si>
+  <si>
+    <t>59999287596</t>
+  </si>
+  <si>
+    <t>PTJDQL</t>
+  </si>
+  <si>
+    <t>59999273648</t>
+  </si>
+  <si>
+    <t>DOJINK</t>
+  </si>
+  <si>
+    <t>59999564363</t>
+  </si>
+  <si>
+    <t>RJHKQG</t>
+  </si>
+  <si>
+    <t>59999016779</t>
+  </si>
+  <si>
+    <t>JFKILA</t>
+  </si>
+  <si>
+    <t>59999823390</t>
+  </si>
+  <si>
+    <t>INHOAH</t>
+  </si>
+  <si>
+    <t>59999857243</t>
+  </si>
+  <si>
+    <t>BUJTUB</t>
+  </si>
+  <si>
+    <t>59999828297</t>
+  </si>
+  <si>
+    <t>SUJFHS</t>
+  </si>
+  <si>
+    <t>95.0</t>
+  </si>
+  <si>
+    <t>7484295759</t>
+  </si>
+  <si>
+    <t>Kamini</t>
+  </si>
+  <si>
+    <t>DhirajChadha90786@example.net</t>
+  </si>
+  <si>
+    <t>1970-04-20</t>
+  </si>
+  <si>
+    <t>549848817928898</t>
+  </si>
+  <si>
+    <t>05ee8af03e266e9e</t>
+  </si>
+  <si>
+    <t>387974601222259</t>
+  </si>
+  <si>
+    <t>335577017484295759</t>
+  </si>
+  <si>
+    <t>ICIC95263267950</t>
+  </si>
+  <si>
+    <t>7351067199</t>
+  </si>
+  <si>
+    <t>Kiran</t>
+  </si>
+  <si>
+    <t>MotiSwamy15470@example.net</t>
+  </si>
+  <si>
+    <t>1985-04-17</t>
+  </si>
+  <si>
+    <t>276095017632586</t>
+  </si>
+  <si>
+    <t>478037ed98bd65f1</t>
+  </si>
+  <si>
+    <t>757605108834368</t>
+  </si>
+  <si>
+    <t>335577017351067199</t>
+  </si>
+  <si>
+    <t>ICIC89661160639</t>
+  </si>
+  <si>
+    <t>7063833383</t>
+  </si>
+  <si>
+    <t>Ruchi</t>
+  </si>
+  <si>
+    <t>YogeshNarang96318@example.net</t>
+  </si>
+  <si>
+    <t>1976-11-06</t>
+  </si>
+  <si>
+    <t>862439506327458</t>
+  </si>
+  <si>
+    <t>543ee898a410468d</t>
+  </si>
+  <si>
+    <t>703490170058039</t>
+  </si>
+  <si>
+    <t>6690573168</t>
+  </si>
+  <si>
+    <t>KalyanParsa61875@example.net</t>
+  </si>
+  <si>
+    <t>1995-02-09</t>
+  </si>
+  <si>
+    <t>263769836695967</t>
+  </si>
+  <si>
+    <t>adee59d7323f6f92</t>
+  </si>
+  <si>
+    <t>846007779684144</t>
+  </si>
+  <si>
+    <t>9903804683</t>
+  </si>
+  <si>
+    <t>Lakshmi</t>
+  </si>
+  <si>
+    <t>RahimKari77654@example.net</t>
+  </si>
+  <si>
+    <t>1992-08-01</t>
+  </si>
+  <si>
+    <t>960605309660565</t>
+  </si>
+  <si>
+    <t>375f76a3186899b0</t>
+  </si>
+  <si>
+    <t>460533769904734</t>
+  </si>
+  <si>
+    <t>IDEP317659647388XJOL</t>
+  </si>
+  <si>
+    <t>4216000.0</t>
+  </si>
+  <si>
+    <t>9363847647</t>
+  </si>
+  <si>
+    <t>Devika</t>
+  </si>
+  <si>
+    <t>RajendraDugal89796@example.net</t>
+  </si>
+  <si>
+    <t>1992-02-28</t>
+  </si>
+  <si>
+    <t>952661356836871</t>
+  </si>
+  <si>
+    <t>21975c45eccef6a9</t>
+  </si>
+  <si>
+    <t>652977231707761</t>
+  </si>
+  <si>
+    <t>4216265.0</t>
+  </si>
+  <si>
+    <t>8379356156</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>WafaGola23297@example.net</t>
+  </si>
+  <si>
+    <t>1986-01-04</t>
+  </si>
+  <si>
+    <t>820279011284120</t>
+  </si>
+  <si>
+    <t>3926c9d0fa228955</t>
+  </si>
+  <si>
+    <t>980494214449497</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>59999715349</t>
+  </si>
+  <si>
+    <t>MASRTI</t>
+  </si>
+  <si>
+    <t>BNPL3761617158583794</t>
+  </si>
+  <si>
+    <t>59999010682</t>
+  </si>
+  <si>
+    <t>NCEUAE</t>
+  </si>
+  <si>
+    <t>59999118109</t>
+  </si>
+  <si>
+    <t>KDRJLD</t>
+  </si>
+  <si>
+    <t>59999659878</t>
+  </si>
+  <si>
+    <t>MGFONH</t>
+  </si>
+  <si>
+    <t>59999622543</t>
+  </si>
+  <si>
+    <t>ERIQKI</t>
+  </si>
+  <si>
+    <t>59999285957</t>
+  </si>
+  <si>
+    <t>SCLJGU</t>
+  </si>
+  <si>
+    <t>59999568580</t>
+  </si>
+  <si>
+    <t>EULODI</t>
+  </si>
+  <si>
+    <t>59999730168</t>
+  </si>
+  <si>
+    <t>DONBNB</t>
+  </si>
+  <si>
+    <t>59999320270</t>
+  </si>
+  <si>
+    <t>ABEGQC</t>
+  </si>
+  <si>
+    <t>59999855228</t>
+  </si>
+  <si>
+    <t>PIQKFA</t>
+  </si>
+  <si>
+    <t>167.0</t>
+  </si>
+  <si>
+    <t>335577018379356156</t>
+  </si>
+  <si>
+    <t>ICIC96966330183</t>
+  </si>
+  <si>
+    <t>ICIC82082392095</t>
+  </si>
+  <si>
+    <t>9914721718</t>
+  </si>
+  <si>
+    <t>Kusum</t>
+  </si>
+  <si>
+    <t>AslamKorpal35512@example.net</t>
+  </si>
+  <si>
+    <t>1978-05-17</t>
+  </si>
+  <si>
+    <t>293855190351927</t>
+  </si>
+  <si>
+    <t>1ee946a8a58c1364</t>
+  </si>
+  <si>
+    <t>134777153439080</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>59999076843</t>
+  </si>
+  <si>
+    <t>SLDTDS</t>
+  </si>
+  <si>
+    <t>BNPL6713631435767215</t>
+  </si>
+  <si>
+    <t>59999956559</t>
+  </si>
+  <si>
+    <t>OCQJMQ</t>
+  </si>
+  <si>
+    <t>59999961886</t>
+  </si>
+  <si>
+    <t>NILPES</t>
+  </si>
+  <si>
+    <t>59999581602</t>
+  </si>
+  <si>
+    <t>KSOJQP</t>
+  </si>
+  <si>
+    <t>59999173414</t>
+  </si>
+  <si>
+    <t>HEARGL</t>
+  </si>
+  <si>
+    <t>59999057337</t>
+  </si>
+  <si>
+    <t>FMPMEI</t>
+  </si>
+  <si>
+    <t>59999964660</t>
+  </si>
+  <si>
+    <t>ACLAQK</t>
+  </si>
+  <si>
+    <t>59999559465</t>
+  </si>
+  <si>
+    <t>KCNAIG</t>
+  </si>
+  <si>
+    <t>59999957133</t>
+  </si>
+  <si>
+    <t>HIBAQB</t>
+  </si>
+  <si>
+    <t>59999621259</t>
+  </si>
+  <si>
+    <t>LSJJDS</t>
+  </si>
+  <si>
+    <t>139.0</t>
+  </si>
+  <si>
+    <t>335577019914721718</t>
+  </si>
+  <si>
+    <t>ICIC85048110031</t>
+  </si>
+  <si>
+    <t>ICIC96463601680</t>
+  </si>
+  <si>
+    <t>9848585586</t>
+  </si>
+  <si>
+    <t>Vineeta</t>
+  </si>
+  <si>
+    <t>RashidAnand81478@example.net</t>
+  </si>
+  <si>
+    <t>1975-10-27</t>
+  </si>
+  <si>
+    <t>968653376625147</t>
+  </si>
+  <si>
+    <t>5acc4290c0951b50</t>
+  </si>
+  <si>
+    <t>006040337304505</t>
+  </si>
+  <si>
+    <t>IDEP316764875555X9T7</t>
+  </si>
+  <si>
+    <t>9563666865</t>
+  </si>
+  <si>
+    <t>Mayawati</t>
+  </si>
+  <si>
+    <t>GajendraBalay43245@example.net</t>
+  </si>
+  <si>
+    <t>1980-01-09</t>
+  </si>
+  <si>
+    <t>825231813717141</t>
+  </si>
+  <si>
+    <t>38f879ce45f42286</t>
+  </si>
+  <si>
+    <t>942812918080614</t>
+  </si>
+  <si>
+    <t>IDEP761364274774LICY</t>
+  </si>
+  <si>
+    <t>4216307.0</t>
+  </si>
+  <si>
+    <t>9729946500</t>
+  </si>
+  <si>
+    <t>Kasturba</t>
+  </si>
+  <si>
+    <t>PrasoonNanda64026@example.net</t>
+  </si>
+  <si>
+    <t>1989-11-02</t>
+  </si>
+  <si>
+    <t>819549676807560</t>
+  </si>
+  <si>
+    <t>7503ed419a208daf</t>
+  </si>
+  <si>
+    <t>873952749711186</t>
+  </si>
+  <si>
+    <t>9088698021</t>
+  </si>
+  <si>
+    <t>PravinSarraf56072@example.net</t>
+  </si>
+  <si>
+    <t>1985-03-18</t>
+  </si>
+  <si>
+    <t>696563772250409</t>
+  </si>
+  <si>
+    <t>631a46cf9b767fdd</t>
+  </si>
+  <si>
+    <t>600685233431909</t>
+  </si>
+  <si>
+    <t>IDEP317664885237RK2E</t>
+  </si>
+  <si>
+    <t>4216309.0</t>
+  </si>
+  <si>
+    <t>8971471154</t>
+  </si>
+  <si>
+    <t>Sushmita</t>
+  </si>
+  <si>
+    <t>BishnuDevan64422@example.net</t>
+  </si>
+  <si>
+    <t>1975-04-28</t>
+  </si>
+  <si>
+    <t>644164424095418</t>
+  </si>
+  <si>
+    <t>f087b5bc625968c1</t>
+  </si>
+  <si>
+    <t>380645254504667</t>
+  </si>
+  <si>
+    <t>IDEP731664935147KBAN</t>
+  </si>
+  <si>
+    <t>4216313.0</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>59999296272</t>
+  </si>
+  <si>
+    <t>EUCSGA</t>
+  </si>
+  <si>
+    <t>BNPL6173651483233254</t>
+  </si>
+  <si>
+    <t>59999751916</t>
+  </si>
+  <si>
+    <t>IMJLAJ</t>
+  </si>
+  <si>
+    <t>59999807980</t>
+  </si>
+  <si>
+    <t>BJKHIO</t>
+  </si>
+  <si>
+    <t>59999915552</t>
+  </si>
+  <si>
+    <t>FKMABG</t>
+  </si>
+  <si>
+    <t>59999446740</t>
+  </si>
+  <si>
+    <t>PLMEFJ</t>
+  </si>
+  <si>
+    <t>59999471324</t>
+  </si>
+  <si>
+    <t>DSIUGK</t>
+  </si>
+  <si>
+    <t>59999609626</t>
+  </si>
+  <si>
+    <t>IDFMOE</t>
+  </si>
+  <si>
+    <t>59999680623</t>
+  </si>
+  <si>
+    <t>IGDLRP</t>
+  </si>
+  <si>
+    <t>59999067907</t>
+  </si>
+  <si>
+    <t>ISKDUU</t>
+  </si>
+  <si>
+    <t>59999369404</t>
+  </si>
+  <si>
+    <t>RNTRSN</t>
+  </si>
+  <si>
+    <t>257.0</t>
+  </si>
+  <si>
+    <t>335577018971471154</t>
+  </si>
+  <si>
+    <t>ICIC92206899426</t>
+  </si>
+  <si>
+    <t>ICIC81583568150</t>
+  </si>
+  <si>
+    <t>8095033104</t>
+  </si>
+  <si>
+    <t>Kalpana</t>
+  </si>
+  <si>
+    <t>IshatPrabhakar83136@example.net</t>
+  </si>
+  <si>
+    <t>1975-12-11</t>
+  </si>
+  <si>
+    <t>153313996142461</t>
+  </si>
+  <si>
+    <t>4b04dd99a9298f7f</t>
+  </si>
+  <si>
+    <t>968164081489928</t>
+  </si>
+  <si>
+    <t>IDEP173665581579JR2F</t>
+  </si>
+  <si>
+    <t>4216314.0</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>59999312986</t>
+  </si>
+  <si>
+    <t>MFUHIN</t>
+  </si>
+  <si>
+    <t>BNPL1376657893638273</t>
+  </si>
+  <si>
+    <t>59999766281</t>
+  </si>
+  <si>
+    <t>DFJMPE</t>
+  </si>
+  <si>
+    <t>59999153691</t>
+  </si>
+  <si>
+    <t>LIRUSE</t>
+  </si>
+  <si>
+    <t>59999713246</t>
+  </si>
+  <si>
+    <t>CAPDBM</t>
+  </si>
+  <si>
+    <t>59999518355</t>
+  </si>
+  <si>
+    <t>AJOMAK</t>
+  </si>
+  <si>
+    <t>59999189095</t>
+  </si>
+  <si>
+    <t>SBOUOU</t>
+  </si>
+  <si>
+    <t>59999329180</t>
+  </si>
+  <si>
+    <t>PSPFCG</t>
+  </si>
+  <si>
+    <t>59999495770</t>
+  </si>
+  <si>
+    <t>KSQGEM</t>
+  </si>
+  <si>
+    <t>59999741277</t>
+  </si>
+  <si>
+    <t>AOKNBD</t>
+  </si>
+  <si>
+    <t>59999353700</t>
+  </si>
+  <si>
+    <t>TIGSPI</t>
+  </si>
+  <si>
+    <t>150.0</t>
+  </si>
+  <si>
+    <t>335577018095033104</t>
+  </si>
+  <si>
+    <t>ICIC81592467837</t>
+  </si>
+  <si>
+    <t>ICIC93002381546</t>
+  </si>
+  <si>
+    <t>59999433983</t>
+  </si>
+  <si>
+    <t>IMKDKO</t>
+  </si>
+  <si>
+    <t>59999694688</t>
+  </si>
+  <si>
+    <t>TAGGLJ</t>
+  </si>
+  <si>
+    <t>59999328825</t>
+  </si>
+  <si>
+    <t>MAGNBI</t>
+  </si>
+  <si>
+    <t>59999668343</t>
+  </si>
+  <si>
+    <t>RLROPB</t>
+  </si>
+  <si>
+    <t>59999424630</t>
+  </si>
+  <si>
+    <t>IJAMIF</t>
+  </si>
+  <si>
+    <t>59999284878</t>
+  </si>
+  <si>
+    <t>ONSIHF</t>
+  </si>
+  <si>
+    <t>59999009538</t>
+  </si>
+  <si>
+    <t>FJRBGU</t>
+  </si>
+  <si>
+    <t>59999304017</t>
+  </si>
+  <si>
+    <t>NGETAT</t>
+  </si>
+  <si>
+    <t>59999679960</t>
+  </si>
+  <si>
+    <t>ENHFUP</t>
+  </si>
+  <si>
+    <t>59999194522</t>
+  </si>
+  <si>
+    <t>GGSJPU</t>
+  </si>
+  <si>
+    <t>59999703332</t>
+  </si>
+  <si>
+    <t>CSDRUC</t>
+  </si>
+  <si>
+    <t>59999430538</t>
+  </si>
+  <si>
+    <t>RLILUO</t>
+  </si>
+  <si>
+    <t>59999910904</t>
+  </si>
+  <si>
+    <t>RASOAF</t>
+  </si>
+  <si>
+    <t>59999735472</t>
+  </si>
+  <si>
+    <t>BPQMGO</t>
+  </si>
+  <si>
+    <t>59999566945</t>
+  </si>
+  <si>
+    <t>TKAKGC</t>
+  </si>
+  <si>
+    <t>59999644970</t>
+  </si>
+  <si>
+    <t>RKKLPM</t>
+  </si>
+  <si>
+    <t>59999222324</t>
+  </si>
+  <si>
+    <t>KGDAFT</t>
+  </si>
+  <si>
+    <t>59999632698</t>
+  </si>
+  <si>
+    <t>LBEGPQ</t>
+  </si>
+  <si>
+    <t>59999332215</t>
+  </si>
+  <si>
+    <t>EAATER</t>
+  </si>
+  <si>
+    <t>59999360690</t>
+  </si>
+  <si>
+    <t>FTEUEL</t>
+  </si>
+  <si>
+    <t>59999607511</t>
+  </si>
+  <si>
+    <t>EMTKAP</t>
+  </si>
+  <si>
+    <t>59999574086</t>
+  </si>
+  <si>
+    <t>HLOROM</t>
+  </si>
+  <si>
+    <t>59999417679</t>
+  </si>
+  <si>
+    <t>CKOUEQ</t>
+  </si>
+  <si>
+    <t>59999852613</t>
+  </si>
+  <si>
+    <t>MFAHNA</t>
+  </si>
+  <si>
+    <t>59999750345</t>
+  </si>
+  <si>
+    <t>EJSEFQ</t>
+  </si>
+  <si>
+    <t>59999286348</t>
+  </si>
+  <si>
+    <t>RQUUMK</t>
+  </si>
+  <si>
+    <t>59999339876</t>
+  </si>
+  <si>
+    <t>SRDITR</t>
+  </si>
+  <si>
+    <t>7215792345</t>
+  </si>
+  <si>
+    <t>ArjunDivan46850@example.net</t>
+  </si>
+  <si>
+    <t>1979-07-13</t>
+  </si>
+  <si>
+    <t>351254673242952</t>
+  </si>
+  <si>
+    <t>1dc28c8c11a09774</t>
+  </si>
+  <si>
+    <t>981337988197298</t>
+  </si>
+  <si>
+    <t>IDEP376121581253LKNS</t>
+  </si>
+  <si>
+    <t>4216319.0</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>59999456448</t>
+  </si>
+  <si>
+    <t>PUTIBN</t>
+  </si>
+  <si>
+    <t>59999407769</t>
+  </si>
+  <si>
+    <t>ILPJGO</t>
+  </si>
+  <si>
+    <t>59999788978</t>
+  </si>
+  <si>
+    <t>OFALLI</t>
+  </si>
+  <si>
+    <t>59999477942</t>
+  </si>
+  <si>
+    <t>PLASTK</t>
+  </si>
+  <si>
+    <t>59999988385</t>
+  </si>
+  <si>
+    <t>AQAUMC</t>
+  </si>
+  <si>
+    <t>59999893094</t>
+  </si>
+  <si>
+    <t>CUIRSD</t>
+  </si>
+  <si>
+    <t>59999068434</t>
+  </si>
+  <si>
+    <t>TCRCEG</t>
+  </si>
+  <si>
+    <t>59999279331</t>
+  </si>
+  <si>
+    <t>SHSOUB</t>
+  </si>
+  <si>
+    <t>59999073424</t>
+  </si>
+  <si>
+    <t>HJSEKT</t>
+  </si>
+  <si>
+    <t>59999407585</t>
+  </si>
+  <si>
+    <t>SJKMAR</t>
+  </si>
+  <si>
+    <t>8697570555</t>
+  </si>
+  <si>
+    <t>Nalini</t>
+  </si>
+  <si>
+    <t>JawaharLad91450@example.net</t>
+  </si>
+  <si>
+    <t>1988-09-03</t>
+  </si>
+  <si>
+    <t>934737511404707</t>
+  </si>
+  <si>
+    <t>3bb934f363d2929b</t>
+  </si>
+  <si>
+    <t>331112607214098</t>
+  </si>
+  <si>
+    <t>IDEP316721978438VMBU</t>
+  </si>
+  <si>
+    <t>4217239.0</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>59999571755</t>
+  </si>
+  <si>
+    <t>TQLRFD</t>
+  </si>
+  <si>
+    <t>59999138519</t>
+  </si>
+  <si>
+    <t>DBATRH</t>
+  </si>
+  <si>
+    <t>59999815615</t>
+  </si>
+  <si>
+    <t>TDNSFC</t>
+  </si>
+  <si>
+    <t>59999797902</t>
+  </si>
+  <si>
+    <t>POGIBN</t>
+  </si>
+  <si>
+    <t>59999637606</t>
+  </si>
+  <si>
+    <t>EHQDTO</t>
+  </si>
+  <si>
+    <t>59999655448</t>
+  </si>
+  <si>
+    <t>KTFJJC</t>
+  </si>
+  <si>
+    <t>59999488233</t>
+  </si>
+  <si>
+    <t>LJNBEI</t>
+  </si>
+  <si>
+    <t>59999439805</t>
+  </si>
+  <si>
+    <t>QREFLC</t>
+  </si>
+  <si>
+    <t>59999885684</t>
+  </si>
+  <si>
+    <t>KRFRUA</t>
+  </si>
+  <si>
+    <t>59999044463</t>
+  </si>
+  <si>
+    <t>NPMIUM</t>
   </si>
 </sst>
 </file>
@@ -1465,7 +3082,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>298</v>
+        <v>814</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1585,22 +3202,22 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>283</v>
+        <v>821</v>
       </c>
       <c r="C2" t="s">
-        <v>273</v>
+        <v>825</v>
       </c>
       <c r="D2" t="s">
         <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>285</v>
+        <v>844</v>
       </c>
       <c r="F2" t="s">
         <v>249</v>
       </c>
       <c r="G2" t="s">
-        <v>286</v>
+        <v>845</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -1936,9 +3553,7 @@
       <c r="A2" t="s">
         <v>153</v>
       </c>
-      <c r="B2" t="s">
-        <v>287</v>
-      </c>
+      <c r="B2"/>
       <c r="C2" s="2" t="s">
         <v>156</v>
       </c>
@@ -2034,16 +3649,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>303</v>
+        <v>819</v>
       </c>
       <c r="C2" t="s">
-        <v>304</v>
+        <v>820</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>302</v>
+        <v>818</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2146,7 +3761,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>296</v>
+        <v>724</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -2158,7 +3773,7 @@
         <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>297</v>
+        <v>725</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -2167,7 +3782,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>109.0</v>
+        <v>110.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -2614,13 +4229,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>299</v>
+        <v>815</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>300</v>
+        <v>816</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>301</v>
+        <v>817</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -2929,13 +4544,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>299</v>
+        <v>815</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>300</v>
+        <v>816</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>301</v>
+        <v>817</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -3029,13 +4644,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>299</v>
+        <v>815</v>
       </c>
       <c r="E2" t="s">
-        <v>300</v>
+        <v>816</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>301</v>
+        <v>817</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3344,13 +4959,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>299</v>
+        <v>815</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>300</v>
+        <v>816</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>301</v>
+        <v>817</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -3469,7 +5084,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>305</v>
+        <v>724</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -3481,7 +5096,7 @@
         <v>182</v>
       </c>
       <c r="G2" t="s">
-        <v>306</v>
+        <v>726</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -3490,7 +5105,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>109.0</v>
+        <v>110.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -3617,10 +5232,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>298</v>
+        <v>814</v>
       </c>
       <c r="E2" t="s">
-        <v>300</v>
+        <v>816</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3632,7 +5247,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>302</v>
+        <v>818</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3641,10 +5256,10 @@
         <v>68</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>283</v>
+        <v>821</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4215452.0</v>
+        <v>4217257.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -3670,7 +5285,7 @@
         <v>9892189981</v>
       </c>
       <c r="E3" t="s">
-        <v>300</v>
+        <v>816</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>64</v>
@@ -3682,7 +5297,7 @@
         <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>302</v>
+        <v>818</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>67</v>
@@ -3691,10 +5306,10 @@
         <v>68</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>283</v>
+        <v>821</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4215452.0</v>
+        <v>4217257.0</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>69</v>
@@ -3754,7 +5369,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>298</v>
+        <v>814</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3771,7 +5386,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>298</v>
+        <v>814</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3788,7 +5403,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>298</v>
+        <v>814</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3805,7 +5420,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>298</v>
+        <v>814</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3822,7 +5437,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>298</v>
+        <v>814</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3991,7 +5606,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>302</v>
+        <v>818</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -4235,7 +5850,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>302</v>
+        <v>818</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -4450,7 +6065,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>299</v>
+        <v>815</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
@@ -4533,7 +6148,7 @@
         <v>118</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>283</v>
+        <v>821</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>110</v>
@@ -4831,7 +6446,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>283</v>
+        <v>821</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -4851,7 +6466,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>283</v>
+        <v>821</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -4871,7 +6486,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>283</v>
+        <v>821</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -4891,7 +6506,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>283</v>
+        <v>821</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -4911,7 +6526,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>283</v>
+        <v>821</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -4931,7 +6546,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>283</v>
+        <v>821</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -4951,7 +6566,7 @@
         <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>283</v>
+        <v>821</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -5010,7 +6625,7 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>273</v>
+        <v>825</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>240</v>
@@ -5024,7 +6639,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>273</v>
+        <v>825</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>240</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2699" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2748" uniqueCount="855">
   <si>
     <t>TestCases</t>
   </si>
@@ -2583,6 +2583,33 @@
   </si>
   <si>
     <t>NPMIUM</t>
+  </si>
+  <si>
+    <t>9672415054</t>
+  </si>
+  <si>
+    <t>Urvashi</t>
+  </si>
+  <si>
+    <t>MalikMunshi90896@example.net</t>
+  </si>
+  <si>
+    <t>1994-12-19</t>
+  </si>
+  <si>
+    <t>007882396960407</t>
+  </si>
+  <si>
+    <t>a7504339a79df675</t>
+  </si>
+  <si>
+    <t>050442169685339</t>
+  </si>
+  <si>
+    <t>IDEP376138739462DRU1</t>
+  </si>
+  <si>
+    <t>4217257.0</t>
   </si>
 </sst>
 </file>
@@ -3082,7 +3109,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>814</v>
+        <v>846</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -3202,7 +3229,7 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>821</v>
+        <v>853</v>
       </c>
       <c r="C2" t="s">
         <v>825</v>
@@ -3649,16 +3676,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>819</v>
+        <v>851</v>
       </c>
       <c r="C2" t="s">
-        <v>820</v>
+        <v>852</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>818</v>
+        <v>850</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -4229,13 +4256,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>815</v>
+        <v>847</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>816</v>
+        <v>848</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>817</v>
+        <v>849</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -4544,13 +4571,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>815</v>
+        <v>847</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>816</v>
+        <v>848</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>817</v>
+        <v>849</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -4644,13 +4671,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>815</v>
+        <v>847</v>
       </c>
       <c r="E2" t="s">
-        <v>816</v>
+        <v>848</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>817</v>
+        <v>849</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -4959,13 +4986,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>815</v>
+        <v>847</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>816</v>
+        <v>848</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>817</v>
+        <v>849</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -5232,10 +5259,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>814</v>
+        <v>846</v>
       </c>
       <c r="E2" t="s">
-        <v>816</v>
+        <v>848</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -5247,7 +5274,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>818</v>
+        <v>850</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -5256,10 +5283,10 @@
         <v>68</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>821</v>
+        <v>853</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4217257.0</v>
+        <v>4217316.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -5285,7 +5312,7 @@
         <v>9892189981</v>
       </c>
       <c r="E3" t="s">
-        <v>816</v>
+        <v>848</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>64</v>
@@ -5297,7 +5324,7 @@
         <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>818</v>
+        <v>850</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>67</v>
@@ -5306,10 +5333,10 @@
         <v>68</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>821</v>
+        <v>853</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4217257.0</v>
+        <v>4217316.0</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>69</v>
@@ -5369,7 +5396,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>814</v>
+        <v>846</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -5386,7 +5413,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>814</v>
+        <v>846</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -5403,7 +5430,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>814</v>
+        <v>846</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -5420,7 +5447,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>814</v>
+        <v>846</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -5437,7 +5464,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>814</v>
+        <v>846</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -5606,7 +5633,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>818</v>
+        <v>850</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -5850,7 +5877,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>818</v>
+        <v>850</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -6065,7 +6092,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>815</v>
+        <v>847</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
@@ -6148,7 +6175,7 @@
         <v>118</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>821</v>
+        <v>853</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>110</v>
@@ -6446,7 +6473,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>821</v>
+        <v>853</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -6466,7 +6493,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>821</v>
+        <v>853</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -6486,7 +6513,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>821</v>
+        <v>853</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -6506,7 +6533,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>821</v>
+        <v>853</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -6526,7 +6553,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>821</v>
+        <v>853</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -6546,7 +6573,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>821</v>
+        <v>853</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -6566,7 +6593,7 @@
         <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>821</v>
+        <v>853</v>
       </c>
       <c r="C8">
         <v>725</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2748" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2832" uniqueCount="874">
   <si>
     <t>TestCases</t>
   </si>
@@ -2610,6 +2610,63 @@
   </si>
   <si>
     <t>4217257.0</t>
+  </si>
+  <si>
+    <t>6936157646</t>
+  </si>
+  <si>
+    <t>Leelawati</t>
+  </si>
+  <si>
+    <t>AniruddhWason88396@example.net</t>
+  </si>
+  <si>
+    <t>1976-09-19</t>
+  </si>
+  <si>
+    <t>954164259853414</t>
+  </si>
+  <si>
+    <t>0ad298a6bb6b3200</t>
+  </si>
+  <si>
+    <t>009098687640461</t>
+  </si>
+  <si>
+    <t>IDEP361738923582OH4X</t>
+  </si>
+  <si>
+    <t>4217316.0</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>59999425266</t>
+  </si>
+  <si>
+    <t>FEIHBB</t>
+  </si>
+  <si>
+    <t>BNPL7361311285385647</t>
+  </si>
+  <si>
+    <t>59999766507</t>
+  </si>
+  <si>
+    <t>GQAIGO</t>
+  </si>
+  <si>
+    <t>59999723187</t>
+  </si>
+  <si>
+    <t>EBOCPD</t>
   </si>
 </sst>
 </file>
@@ -3109,7 +3166,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -3229,22 +3286,22 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>853</v>
+        <v>862</v>
       </c>
       <c r="C2" t="s">
-        <v>825</v>
+        <v>866</v>
       </c>
       <c r="D2" t="s">
         <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>844</v>
+        <v>872</v>
       </c>
       <c r="F2" t="s">
         <v>249</v>
       </c>
       <c r="G2" t="s">
-        <v>845</v>
+        <v>873</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -3580,7 +3637,9 @@
       <c r="A2" t="s">
         <v>153</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>869</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>156</v>
       </c>
@@ -3676,16 +3735,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>851</v>
+        <v>860</v>
       </c>
       <c r="C2" t="s">
-        <v>852</v>
+        <v>861</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>850</v>
+        <v>859</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -4256,13 +4315,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>847</v>
+        <v>856</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>848</v>
+        <v>857</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>849</v>
+        <v>858</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -4571,13 +4630,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>847</v>
+        <v>856</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>848</v>
+        <v>857</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>849</v>
+        <v>858</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -4671,13 +4730,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>847</v>
+        <v>856</v>
       </c>
       <c r="E2" t="s">
-        <v>848</v>
+        <v>857</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>849</v>
+        <v>858</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -4986,13 +5045,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>847</v>
+        <v>856</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>848</v>
+        <v>857</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>849</v>
+        <v>858</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -5259,10 +5318,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="E2" t="s">
-        <v>848</v>
+        <v>857</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -5274,7 +5333,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>850</v>
+        <v>859</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -5283,10 +5342,10 @@
         <v>68</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>853</v>
+        <v>862</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4217316.0</v>
+        <v>4217318.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -5312,7 +5371,7 @@
         <v>9892189981</v>
       </c>
       <c r="E3" t="s">
-        <v>848</v>
+        <v>857</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>64</v>
@@ -5324,7 +5383,7 @@
         <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>850</v>
+        <v>859</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>67</v>
@@ -5333,10 +5392,10 @@
         <v>68</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>853</v>
+        <v>862</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4217316.0</v>
+        <v>4217318.0</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>69</v>
@@ -5396,7 +5455,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -5413,7 +5472,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -5430,7 +5489,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -5447,7 +5506,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -5464,7 +5523,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -5633,7 +5692,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>850</v>
+        <v>859</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -5877,7 +5936,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>850</v>
+        <v>859</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -6092,7 +6151,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>847</v>
+        <v>856</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
@@ -6175,7 +6234,7 @@
         <v>118</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>853</v>
+        <v>862</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>110</v>
@@ -6473,7 +6532,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>853</v>
+        <v>862</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -6493,7 +6552,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>853</v>
+        <v>862</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -6513,7 +6572,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>853</v>
+        <v>862</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -6533,7 +6592,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>853</v>
+        <v>862</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -6553,7 +6612,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>853</v>
+        <v>862</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -6573,7 +6632,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>853</v>
+        <v>862</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -6593,7 +6652,7 @@
         <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>853</v>
+        <v>862</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -6652,7 +6711,7 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>825</v>
+        <v>866</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>240</v>
@@ -6666,7 +6725,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>825</v>
+        <v>866</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>240</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3187" uniqueCount="1008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3217" uniqueCount="1014">
   <si>
     <t>TestCases</t>
   </si>
@@ -3069,6 +3069,24 @@
   </si>
   <si>
     <t>ICIC87247146709</t>
+  </si>
+  <si>
+    <t>9950896154</t>
+  </si>
+  <si>
+    <t>EhsaanNaik38237@example.net</t>
+  </si>
+  <si>
+    <t>1988-05-24</t>
+  </si>
+  <si>
+    <t>825453714699000</t>
+  </si>
+  <si>
+    <t>cb57014fa4d9d0c0</t>
+  </si>
+  <si>
+    <t>627588329794058</t>
   </si>
 </sst>
 </file>
@@ -3568,7 +3586,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>974</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -3687,9 +3705,7 @@
       <c r="A2" t="s">
         <v>129</v>
       </c>
-      <c r="B2" t="s">
-        <v>980</v>
-      </c>
+      <c r="B2"/>
       <c r="C2" t="s">
         <v>410</v>
       </c>
@@ -4137,16 +4153,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>978</v>
+        <v>1012</v>
       </c>
       <c r="C2" t="s">
-        <v>979</v>
+        <v>1013</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>977</v>
+        <v>1011</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -4717,13 +4733,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>619</v>
+        <v>277</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>975</v>
+        <v>1009</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>976</v>
+        <v>1010</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -5032,13 +5048,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>619</v>
+        <v>277</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>975</v>
+        <v>1009</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>976</v>
+        <v>1010</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -5132,13 +5148,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>619</v>
+        <v>277</v>
       </c>
       <c r="E2" t="s">
-        <v>975</v>
+        <v>1009</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>976</v>
+        <v>1010</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -5146,9 +5162,7 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
-        <v>248</v>
-      </c>
+      <c r="I2"/>
       <c r="J2" s="16" t="s">
         <v>219</v>
       </c>
@@ -5447,13 +5461,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>619</v>
+        <v>277</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>975</v>
+        <v>1009</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>976</v>
+        <v>1010</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -5461,9 +5475,7 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11" t="s">
-        <v>248</v>
-      </c>
+      <c r="I11"/>
       <c r="J11" s="16" t="s">
         <v>219</v>
       </c>
@@ -5720,10 +5732,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>974</v>
+        <v>1008</v>
       </c>
       <c r="E2" t="s">
-        <v>975</v>
+        <v>1009</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -5735,7 +5747,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>977</v>
+        <v>1011</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -5743,9 +5755,7 @@
       <c r="K2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>980</v>
-      </c>
+      <c r="L2" s="2"/>
       <c r="M2" s="2" t="n">
         <v>4218150.0</v>
       </c>
@@ -5773,7 +5783,7 @@
         <v>9892189981</v>
       </c>
       <c r="E3" t="s">
-        <v>975</v>
+        <v>1009</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>64</v>
@@ -5785,7 +5795,7 @@
         <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>977</v>
+        <v>1011</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>67</v>
@@ -5793,9 +5803,7 @@
       <c r="K3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>980</v>
-      </c>
+      <c r="L3" s="2"/>
       <c r="M3" s="2" t="n">
         <v>4218150.0</v>
       </c>
@@ -5857,7 +5865,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>974</v>
+        <v>1008</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -5874,7 +5882,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>974</v>
+        <v>1008</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -5891,7 +5899,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>974</v>
+        <v>1008</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -5908,7 +5916,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>974</v>
+        <v>1008</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -5925,7 +5933,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>974</v>
+        <v>1008</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -6094,7 +6102,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>977</v>
+        <v>1011</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -6338,7 +6346,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>977</v>
+        <v>1011</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -6553,7 +6561,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>619</v>
+        <v>277</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
@@ -6635,9 +6643,7 @@
       <c r="A2" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>980</v>
-      </c>
+      <c r="B2" s="19"/>
       <c r="C2" s="20" t="s">
         <v>110</v>
       </c>
@@ -6933,9 +6939,7 @@
       <c r="A2" t="s">
         <v>214</v>
       </c>
-      <c r="B2" t="s">
-        <v>980</v>
-      </c>
+      <c r="B2"/>
       <c r="C2">
         <v>303</v>
       </c>
@@ -6953,9 +6957,7 @@
       <c r="A3" t="s">
         <v>216</v>
       </c>
-      <c r="B3" t="s">
-        <v>980</v>
-      </c>
+      <c r="B3"/>
       <c r="C3">
         <v>563</v>
       </c>
@@ -6973,9 +6975,7 @@
       <c r="A4" t="s">
         <v>223</v>
       </c>
-      <c r="B4" t="s">
-        <v>980</v>
-      </c>
+      <c r="B4"/>
       <c r="C4">
         <v>645</v>
       </c>
@@ -6993,9 +6993,7 @@
       <c r="A5" t="s">
         <v>224</v>
       </c>
-      <c r="B5" t="s">
-        <v>980</v>
-      </c>
+      <c r="B5"/>
       <c r="C5">
         <v>668</v>
       </c>
@@ -7013,9 +7011,7 @@
       <c r="A6" t="s">
         <v>225</v>
       </c>
-      <c r="B6" t="s">
-        <v>980</v>
-      </c>
+      <c r="B6"/>
       <c r="C6">
         <v>725</v>
       </c>
@@ -7033,9 +7029,7 @@
       <c r="A7" t="s">
         <v>226</v>
       </c>
-      <c r="B7" t="s">
-        <v>980</v>
-      </c>
+      <c r="B7"/>
       <c r="C7">
         <v>800</v>
       </c>
@@ -7053,9 +7047,7 @@
       <c r="A8" t="s">
         <v>230</v>
       </c>
-      <c r="B8" t="s">
-        <v>980</v>
-      </c>
+      <c r="B8"/>
       <c r="C8">
         <v>725</v>
       </c>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3217" uniqueCount="1014">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3279" uniqueCount="1028">
   <si>
     <t>TestCases</t>
   </si>
@@ -3087,6 +3087,48 @@
   </si>
   <si>
     <t>627588329794058</t>
+  </si>
+  <si>
+    <t>8882433259</t>
+  </si>
+  <si>
+    <t>Nidhi</t>
+  </si>
+  <si>
+    <t>MarloShan73980@example.net</t>
+  </si>
+  <si>
+    <t>1988-10-25</t>
+  </si>
+  <si>
+    <t>766670536048725</t>
+  </si>
+  <si>
+    <t>a265514bd6e49c58</t>
+  </si>
+  <si>
+    <t>292047749274005</t>
+  </si>
+  <si>
+    <t>8863253038</t>
+  </si>
+  <si>
+    <t>Nishita</t>
+  </si>
+  <si>
+    <t>AadilRajan44448@example.net</t>
+  </si>
+  <si>
+    <t>1994-02-08</t>
+  </si>
+  <si>
+    <t>714009362753194</t>
+  </si>
+  <si>
+    <t>9e705a837ba43489</t>
+  </si>
+  <si>
+    <t>573088262088729</t>
   </si>
 </sst>
 </file>
@@ -3586,7 +3628,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>1008</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -4153,16 +4195,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>1012</v>
+        <v>1026</v>
       </c>
       <c r="C2" t="s">
-        <v>1013</v>
+        <v>1027</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>1011</v>
+        <v>1025</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -4733,13 +4775,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>277</v>
+        <v>1022</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1009</v>
+        <v>1023</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>1010</v>
+        <v>1024</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -5048,13 +5090,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>277</v>
+        <v>1022</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1009</v>
+        <v>1023</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>1010</v>
+        <v>1024</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -5148,13 +5190,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>277</v>
+        <v>1022</v>
       </c>
       <c r="E2" t="s">
-        <v>1009</v>
+        <v>1023</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>1010</v>
+        <v>1024</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -5461,13 +5503,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>277</v>
+        <v>1022</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1009</v>
+        <v>1023</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>1010</v>
+        <v>1024</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -5732,10 +5774,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>1008</v>
+        <v>1021</v>
       </c>
       <c r="E2" t="s">
-        <v>1009</v>
+        <v>1023</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -5747,7 +5789,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1011</v>
+        <v>1025</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -5755,7 +5797,7 @@
       <c r="K2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="L2"/>
       <c r="M2" s="2" t="n">
         <v>4218150.0</v>
       </c>
@@ -5783,7 +5825,7 @@
         <v>9892189981</v>
       </c>
       <c r="E3" t="s">
-        <v>1009</v>
+        <v>1023</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>64</v>
@@ -5795,7 +5837,7 @@
         <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>1011</v>
+        <v>1025</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>67</v>
@@ -5803,7 +5845,7 @@
       <c r="K3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="L3" s="2"/>
+      <c r="L3"/>
       <c r="M3" s="2" t="n">
         <v>4218150.0</v>
       </c>
@@ -5865,7 +5907,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1008</v>
+        <v>1021</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -5882,7 +5924,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1008</v>
+        <v>1021</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -5899,7 +5941,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1008</v>
+        <v>1021</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -5916,7 +5958,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1008</v>
+        <v>1021</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -5933,7 +5975,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1008</v>
+        <v>1021</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -6102,7 +6144,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>1011</v>
+        <v>1025</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -6346,7 +6388,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>1011</v>
+        <v>1025</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -6561,7 +6603,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>277</v>
+        <v>1022</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
@@ -6643,7 +6685,7 @@
       <c r="A2" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2"/>
       <c r="C2" s="20" t="s">
         <v>110</v>
       </c>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3279" uniqueCount="1028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3249" uniqueCount="1020">
   <si>
     <t>TestCases</t>
   </si>
@@ -3071,64 +3071,40 @@
     <t>ICIC87247146709</t>
   </si>
   <si>
-    <t>9950896154</t>
-  </si>
-  <si>
-    <t>EhsaanNaik38237@example.net</t>
-  </si>
-  <si>
-    <t>1988-05-24</t>
-  </si>
-  <si>
-    <t>825453714699000</t>
-  </si>
-  <si>
-    <t>cb57014fa4d9d0c0</t>
-  </si>
-  <si>
-    <t>627588329794058</t>
-  </si>
-  <si>
-    <t>8882433259</t>
-  </si>
-  <si>
-    <t>Nidhi</t>
-  </si>
-  <si>
-    <t>MarloShan73980@example.net</t>
-  </si>
-  <si>
-    <t>1988-10-25</t>
-  </si>
-  <si>
-    <t>766670536048725</t>
-  </si>
-  <si>
-    <t>a265514bd6e49c58</t>
-  </si>
-  <si>
-    <t>292047749274005</t>
-  </si>
-  <si>
-    <t>8863253038</t>
-  </si>
-  <si>
-    <t>Nishita</t>
-  </si>
-  <si>
-    <t>AadilRajan44448@example.net</t>
-  </si>
-  <si>
-    <t>1994-02-08</t>
-  </si>
-  <si>
-    <t>714009362753194</t>
-  </si>
-  <si>
-    <t>9e705a837ba43489</t>
-  </si>
-  <si>
-    <t>573088262088729</t>
+    <t>9577301906</t>
+  </si>
+  <si>
+    <t>SatishKulkarni66373@example.net</t>
+  </si>
+  <si>
+    <t>1976-11-28</t>
+  </si>
+  <si>
+    <t>644605445804642</t>
+  </si>
+  <si>
+    <t>a7e25c57afb71646</t>
+  </si>
+  <si>
+    <t>558115836660821</t>
+  </si>
+  <si>
+    <t>8191208347</t>
+  </si>
+  <si>
+    <t>AlexRampersad17132@example.net</t>
+  </si>
+  <si>
+    <t>1994-10-01</t>
+  </si>
+  <si>
+    <t>095306714259840</t>
+  </si>
+  <si>
+    <t>2e21c01126e1c0eb</t>
+  </si>
+  <si>
+    <t>698309702403306</t>
   </si>
 </sst>
 </file>
@@ -3628,7 +3604,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -4195,16 +4171,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
       <c r="C2" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -4775,13 +4751,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>1022</v>
+        <v>250</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -5090,13 +5066,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>1022</v>
+        <v>250</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -5190,13 +5166,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>1022</v>
+        <v>250</v>
       </c>
       <c r="E2" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -5503,13 +5479,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>1022</v>
+        <v>250</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -5774,10 +5750,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="E2" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -5789,7 +5765,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -5825,7 +5801,7 @@
         <v>9892189981</v>
       </c>
       <c r="E3" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>64</v>
@@ -5837,7 +5813,7 @@
         <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>67</v>
@@ -5907,7 +5883,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -5924,7 +5900,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -5941,7 +5917,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -5958,7 +5934,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -5975,7 +5951,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -6144,7 +6120,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -6388,7 +6364,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -6603,7 +6579,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>1022</v>
+        <v>250</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3249" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3409" uniqueCount="1055">
   <si>
     <t>TestCases</t>
   </si>
@@ -3105,6 +3105,111 @@
   </si>
   <si>
     <t>698309702403306</t>
+  </si>
+  <si>
+    <t>8786518624</t>
+  </si>
+  <si>
+    <t>Pushpa</t>
+  </si>
+  <si>
+    <t>NaseerParmer49562@example.net</t>
+  </si>
+  <si>
+    <t>1989-07-05</t>
+  </si>
+  <si>
+    <t>716026587803701</t>
+  </si>
+  <si>
+    <t>bf50c7fdd0de8f89</t>
+  </si>
+  <si>
+    <t>716293497846309</t>
+  </si>
+  <si>
+    <t>8995055477</t>
+  </si>
+  <si>
+    <t>Hina</t>
+  </si>
+  <si>
+    <t>MohitMital39831@example.net</t>
+  </si>
+  <si>
+    <t>1982-10-30</t>
+  </si>
+  <si>
+    <t>910147624262273</t>
+  </si>
+  <si>
+    <t>d751604b3a2908af</t>
+  </si>
+  <si>
+    <t>270562025951346</t>
+  </si>
+  <si>
+    <t>7697330962</t>
+  </si>
+  <si>
+    <t>Nupoor</t>
+  </si>
+  <si>
+    <t>VarunGarg86762@example.net</t>
+  </si>
+  <si>
+    <t>1993-11-30</t>
+  </si>
+  <si>
+    <t>131680772261799</t>
+  </si>
+  <si>
+    <t>a0944abfa209cb7a</t>
+  </si>
+  <si>
+    <t>873660467996935</t>
+  </si>
+  <si>
+    <t>9993817413</t>
+  </si>
+  <si>
+    <t>Zara</t>
+  </si>
+  <si>
+    <t>DeepPrakash53544@example.net</t>
+  </si>
+  <si>
+    <t>1978-02-02</t>
+  </si>
+  <si>
+    <t>500164434834809</t>
+  </si>
+  <si>
+    <t>58e8310cfd2b92ad</t>
+  </si>
+  <si>
+    <t>078275589038889</t>
+  </si>
+  <si>
+    <t>7821339543</t>
+  </si>
+  <si>
+    <t>Urmila</t>
+  </si>
+  <si>
+    <t>JaswantGill71477@example.net</t>
+  </si>
+  <si>
+    <t>1991-04-15</t>
+  </si>
+  <si>
+    <t>552305752854070</t>
+  </si>
+  <si>
+    <t>cda433b5c3ca3357</t>
+  </si>
+  <si>
+    <t>851530234387658</t>
   </si>
 </sst>
 </file>
@@ -3604,7 +3709,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>1014</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -4171,16 +4276,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>1018</v>
+        <v>1053</v>
       </c>
       <c r="C2" t="s">
-        <v>1019</v>
+        <v>1054</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>1017</v>
+        <v>1052</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -4751,13 +4856,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>250</v>
+        <v>1049</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1015</v>
+        <v>1050</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>1016</v>
+        <v>1051</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -5066,13 +5171,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>250</v>
+        <v>1049</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1015</v>
+        <v>1050</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>1016</v>
+        <v>1051</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -5166,13 +5271,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>250</v>
+        <v>1049</v>
       </c>
       <c r="E2" t="s">
-        <v>1015</v>
+        <v>1050</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>1016</v>
+        <v>1051</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -5479,13 +5584,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>250</v>
+        <v>1049</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1015</v>
+        <v>1050</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>1016</v>
+        <v>1051</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -5750,10 +5855,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>1014</v>
+        <v>1048</v>
       </c>
       <c r="E2" t="s">
-        <v>1015</v>
+        <v>1050</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -5765,7 +5870,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1017</v>
+        <v>1052</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -5801,7 +5906,7 @@
         <v>9892189981</v>
       </c>
       <c r="E3" t="s">
-        <v>1015</v>
+        <v>1050</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>64</v>
@@ -5813,7 +5918,7 @@
         <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>1017</v>
+        <v>1052</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>67</v>
@@ -5883,7 +5988,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1014</v>
+        <v>1048</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -5900,7 +6005,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1014</v>
+        <v>1048</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -5917,7 +6022,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1014</v>
+        <v>1048</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -5934,7 +6039,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1014</v>
+        <v>1048</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -5951,7 +6056,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1014</v>
+        <v>1048</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -6120,7 +6225,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>1017</v>
+        <v>1052</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -6364,7 +6469,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>1017</v>
+        <v>1052</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -6579,7 +6684,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>250</v>
+        <v>1049</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3409" uniqueCount="1055">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3537" uniqueCount="1083">
   <si>
     <t>TestCases</t>
   </si>
@@ -3210,6 +3210,90 @@
   </si>
   <si>
     <t>851530234387658</t>
+  </si>
+  <si>
+    <t>7465905991</t>
+  </si>
+  <si>
+    <t>Pinky</t>
+  </si>
+  <si>
+    <t>JavedGola98505@example.net</t>
+  </si>
+  <si>
+    <t>1976-07-27</t>
+  </si>
+  <si>
+    <t>773239837241198</t>
+  </si>
+  <si>
+    <t>594987b810d0d304</t>
+  </si>
+  <si>
+    <t>753741582102503</t>
+  </si>
+  <si>
+    <t>6370379427</t>
+  </si>
+  <si>
+    <t>Anusha</t>
+  </si>
+  <si>
+    <t>HanumanBumb27797@example.net</t>
+  </si>
+  <si>
+    <t>1992-09-15</t>
+  </si>
+  <si>
+    <t>793079523522501</t>
+  </si>
+  <si>
+    <t>81da1a6ec8dc2502</t>
+  </si>
+  <si>
+    <t>168594258045038</t>
+  </si>
+  <si>
+    <t>6802710519</t>
+  </si>
+  <si>
+    <t>Manjari</t>
+  </si>
+  <si>
+    <t>KarimChhabra44323@example.net</t>
+  </si>
+  <si>
+    <t>1983-08-31</t>
+  </si>
+  <si>
+    <t>379197591503377</t>
+  </si>
+  <si>
+    <t>e597960d05fd6d18</t>
+  </si>
+  <si>
+    <t>517760333740186</t>
+  </si>
+  <si>
+    <t>6610225255</t>
+  </si>
+  <si>
+    <t>Uma</t>
+  </si>
+  <si>
+    <t>KartikBrahmbhatt24572@example.net</t>
+  </si>
+  <si>
+    <t>1994-02-22</t>
+  </si>
+  <si>
+    <t>845776662410350</t>
+  </si>
+  <si>
+    <t>3743c59e68839f51</t>
+  </si>
+  <si>
+    <t>076139531749880</t>
   </si>
 </sst>
 </file>
@@ -3709,7 +3793,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>1048</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -4276,16 +4360,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>1053</v>
+        <v>1081</v>
       </c>
       <c r="C2" t="s">
-        <v>1054</v>
+        <v>1082</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>1052</v>
+        <v>1080</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -4856,13 +4940,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>1049</v>
+        <v>1077</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1050</v>
+        <v>1078</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>1051</v>
+        <v>1079</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -5171,13 +5255,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>1049</v>
+        <v>1077</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1050</v>
+        <v>1078</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>1051</v>
+        <v>1079</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -5271,13 +5355,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>1049</v>
+        <v>1077</v>
       </c>
       <c r="E2" t="s">
-        <v>1050</v>
+        <v>1078</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>1051</v>
+        <v>1079</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -5584,13 +5668,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>1049</v>
+        <v>1077</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>1050</v>
+        <v>1078</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>1051</v>
+        <v>1079</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -5855,10 +5939,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>1048</v>
+        <v>1076</v>
       </c>
       <c r="E2" t="s">
-        <v>1050</v>
+        <v>1078</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -5870,7 +5954,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1052</v>
+        <v>1080</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -5906,7 +5990,7 @@
         <v>9892189981</v>
       </c>
       <c r="E3" t="s">
-        <v>1050</v>
+        <v>1078</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>64</v>
@@ -5918,7 +6002,7 @@
         <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>1052</v>
+        <v>1080</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>67</v>
@@ -5988,7 +6072,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1048</v>
+        <v>1076</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -6005,7 +6089,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1048</v>
+        <v>1076</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -6022,7 +6106,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1048</v>
+        <v>1076</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -6039,7 +6123,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1048</v>
+        <v>1076</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -6056,7 +6140,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1048</v>
+        <v>1076</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -6225,7 +6309,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>1052</v>
+        <v>1080</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -6469,7 +6553,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>1052</v>
+        <v>1080</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -6684,7 +6768,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>1049</v>
+        <v>1077</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="523">
   <si>
     <t>TestCases</t>
   </si>
@@ -1569,6 +1569,51 @@
   </si>
   <si>
     <t>ICIC91697269854</t>
+  </si>
+  <si>
+    <t>6200678079</t>
+  </si>
+  <si>
+    <t>Zara</t>
+  </si>
+  <si>
+    <t>GajendraBhalla66257@example.net</t>
+  </si>
+  <si>
+    <t>1977-04-16</t>
+  </si>
+  <si>
+    <t>161779989634237</t>
+  </si>
+  <si>
+    <t>8faac65c63d42dcf</t>
+  </si>
+  <si>
+    <t>305949127868768</t>
+  </si>
+  <si>
+    <t>6714581865</t>
+  </si>
+  <si>
+    <t>Aayushi</t>
+  </si>
+  <si>
+    <t>NareshTella75126@example.net</t>
+  </si>
+  <si>
+    <t>1978-08-31</t>
+  </si>
+  <si>
+    <t>843717367842226</t>
+  </si>
+  <si>
+    <t>6f1624640f9d77ed</t>
+  </si>
+  <si>
+    <t>168432214850714</t>
+  </si>
+  <si>
+    <t>IDEP7165779814638RX3</t>
   </si>
 </sst>
 </file>
@@ -2064,7 +2109,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>472</v>
+        <v>515</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2184,7 +2229,7 @@
         <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>479</v>
+        <v>522</v>
       </c>
       <c r="C2" t="s">
         <v>359</v>
@@ -2633,16 +2678,16 @@
         <v>156</v>
       </c>
       <c r="B2" t="s">
-        <v>477</v>
+        <v>520</v>
       </c>
       <c r="C2" t="s">
-        <v>478</v>
+        <v>521</v>
       </c>
       <c r="D2" t="s">
         <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>476</v>
+        <v>519</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -3628,13 +3673,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>473</v>
+        <v>516</v>
       </c>
       <c r="E2" t="s">
-        <v>474</v>
+        <v>517</v>
       </c>
       <c r="F2" t="s">
-        <v>475</v>
+        <v>518</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>219</v>
@@ -4216,10 +4261,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>472</v>
+        <v>515</v>
       </c>
       <c r="E2" t="s">
-        <v>474</v>
+        <v>517</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>63</v>
@@ -4231,7 +4276,7 @@
         <v>65</v>
       </c>
       <c r="I2" t="s">
-        <v>476</v>
+        <v>519</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>66</v>
@@ -4240,10 +4285,10 @@
         <v>67</v>
       </c>
       <c r="L2" t="s">
-        <v>479</v>
+        <v>522</v>
       </c>
       <c r="M2" t="n">
-        <v>4224445.0</v>
+        <v>4224661.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>68</v>
@@ -4303,7 +4348,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>472</v>
+        <v>515</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -4320,7 +4365,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>472</v>
+        <v>515</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -4337,7 +4382,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>472</v>
+        <v>515</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -4354,7 +4399,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>472</v>
+        <v>515</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -4371,7 +4416,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>472</v>
+        <v>515</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -4540,7 +4585,7 @@
         <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>476</v>
+        <v>519</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -4784,7 +4829,7 @@
         <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>476</v>
+        <v>519</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>66</v>
@@ -4999,7 +5044,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>473</v>
+        <v>516</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>103</v>
@@ -5082,7 +5127,7 @@
         <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>479</v>
+        <v>522</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>109</v>
@@ -5380,7 +5425,7 @@
         <v>213</v>
       </c>
       <c r="B2" t="s">
-        <v>479</v>
+        <v>522</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -5400,7 +5445,7 @@
         <v>215</v>
       </c>
       <c r="B3" t="s">
-        <v>479</v>
+        <v>522</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -5420,7 +5465,7 @@
         <v>222</v>
       </c>
       <c r="B4" t="s">
-        <v>479</v>
+        <v>522</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -5440,7 +5485,7 @@
         <v>223</v>
       </c>
       <c r="B5" t="s">
-        <v>479</v>
+        <v>522</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -5460,7 +5505,7 @@
         <v>224</v>
       </c>
       <c r="B6" t="s">
-        <v>479</v>
+        <v>522</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -5480,7 +5525,7 @@
         <v>225</v>
       </c>
       <c r="B7" t="s">
-        <v>479</v>
+        <v>522</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -5500,7 +5545,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>479</v>
+        <v>522</v>
       </c>
       <c r="C8">
         <v>725</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="592">
   <si>
     <t>TestCases</t>
   </si>
@@ -1614,6 +1614,213 @@
   </si>
   <si>
     <t>IDEP7165779814638RX3</t>
+  </si>
+  <si>
+    <t>8490514138</t>
+  </si>
+  <si>
+    <t>Gowri</t>
+  </si>
+  <si>
+    <t>MahmoodMogul78824@example.net</t>
+  </si>
+  <si>
+    <t>1980-01-29</t>
+  </si>
+  <si>
+    <t>843173888328222</t>
+  </si>
+  <si>
+    <t>a868c59bc7a532b0</t>
+  </si>
+  <si>
+    <t>113188311347469</t>
+  </si>
+  <si>
+    <t>IDEP761598114161AMLZ</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>59999461893</t>
+  </si>
+  <si>
+    <t>GBRPJB</t>
+  </si>
+  <si>
+    <t>59999747080</t>
+  </si>
+  <si>
+    <t>JHFIRD</t>
+  </si>
+  <si>
+    <t>59999246846</t>
+  </si>
+  <si>
+    <t>KLUDBP</t>
+  </si>
+  <si>
+    <t>59999034706</t>
+  </si>
+  <si>
+    <t>BBNATG</t>
+  </si>
+  <si>
+    <t>59999071789</t>
+  </si>
+  <si>
+    <t>QLSGAA</t>
+  </si>
+  <si>
+    <t>59999251734</t>
+  </si>
+  <si>
+    <t>LUBUTR</t>
+  </si>
+  <si>
+    <t>59999368176</t>
+  </si>
+  <si>
+    <t>LRORSR</t>
+  </si>
+  <si>
+    <t>59999657016</t>
+  </si>
+  <si>
+    <t>AKOPGE</t>
+  </si>
+  <si>
+    <t>59999194032</t>
+  </si>
+  <si>
+    <t>OHUBDD</t>
+  </si>
+  <si>
+    <t>59999133227</t>
+  </si>
+  <si>
+    <t>GDTQEC</t>
+  </si>
+  <si>
+    <t>9607612935</t>
+  </si>
+  <si>
+    <t>Chameli</t>
+  </si>
+  <si>
+    <t>SubhashPradhan96745@example.net</t>
+  </si>
+  <si>
+    <t>1970-09-19</t>
+  </si>
+  <si>
+    <t>516793090442143</t>
+  </si>
+  <si>
+    <t>4f0130a5c5ca71ae</t>
+  </si>
+  <si>
+    <t>172928209185630</t>
+  </si>
+  <si>
+    <t>IDEP756191332634VTGE</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>59999543413</t>
+  </si>
+  <si>
+    <t>NUDJDJ</t>
+  </si>
+  <si>
+    <t>BNPL6715915855683148</t>
+  </si>
+  <si>
+    <t>59999444011</t>
+  </si>
+  <si>
+    <t>MSKQRM</t>
+  </si>
+  <si>
+    <t>59999765165</t>
+  </si>
+  <si>
+    <t>KUKUAT</t>
+  </si>
+  <si>
+    <t>59999366891</t>
+  </si>
+  <si>
+    <t>TLGUJF</t>
+  </si>
+  <si>
+    <t>59999670836</t>
+  </si>
+  <si>
+    <t>JOEJSR</t>
+  </si>
+  <si>
+    <t>59999749182</t>
+  </si>
+  <si>
+    <t>SGUGEO</t>
+  </si>
+  <si>
+    <t>59999913879</t>
+  </si>
+  <si>
+    <t>EBTAOA</t>
+  </si>
+  <si>
+    <t>59999271152</t>
+  </si>
+  <si>
+    <t>OQSUOB</t>
+  </si>
+  <si>
+    <t>59999260563</t>
+  </si>
+  <si>
+    <t>BQSHLO</t>
+  </si>
+  <si>
+    <t>59999741045</t>
+  </si>
+  <si>
+    <t>JEODRD</t>
+  </si>
+  <si>
+    <t>146.0</t>
+  </si>
+  <si>
+    <t>335577019607612935</t>
+  </si>
+  <si>
+    <t>ICIC96306604129</t>
+  </si>
+  <si>
+    <t>ICIC87587224255</t>
   </si>
 </sst>
 </file>
@@ -2109,7 +2316,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>515</v>
+        <v>556</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2229,22 +2436,22 @@
         <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>522</v>
+        <v>563</v>
       </c>
       <c r="C2" t="s">
-        <v>359</v>
+        <v>535</v>
       </c>
       <c r="D2" t="s">
         <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>502</v>
+        <v>586</v>
       </c>
       <c r="F2" t="s">
         <v>243</v>
       </c>
       <c r="G2" t="s">
-        <v>503</v>
+        <v>587</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -2581,7 +2788,7 @@
         <v>152</v>
       </c>
       <c r="B2" t="s">
-        <v>485</v>
+        <v>569</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>155</v>
@@ -2678,16 +2885,16 @@
         <v>156</v>
       </c>
       <c r="B2" t="s">
-        <v>520</v>
+        <v>561</v>
       </c>
       <c r="C2" t="s">
-        <v>521</v>
+        <v>562</v>
       </c>
       <c r="D2" t="s">
         <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>519</v>
+        <v>560</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2790,7 +2997,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>505</v>
+        <v>589</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>173</v>
@@ -2802,7 +3009,7 @@
         <v>174</v>
       </c>
       <c r="G2" t="s">
-        <v>506</v>
+        <v>590</v>
       </c>
       <c r="H2" s="21">
         <v>44798.630833333336</v>
@@ -2811,7 +3018,7 @@
         <v>175</v>
       </c>
       <c r="J2" t="n">
-        <v>146.0</v>
+        <v>168.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -3673,13 +3880,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>516</v>
+        <v>557</v>
       </c>
       <c r="E2" t="s">
-        <v>517</v>
+        <v>558</v>
       </c>
       <c r="F2" t="s">
-        <v>518</v>
+        <v>559</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>219</v>
@@ -4113,7 +4320,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>505</v>
+        <v>589</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>173</v>
@@ -4125,7 +4332,7 @@
         <v>181</v>
       </c>
       <c r="G2" t="s">
-        <v>507</v>
+        <v>591</v>
       </c>
       <c r="H2" s="21">
         <v>44798.630833333336</v>
@@ -4134,7 +4341,7 @@
         <v>175</v>
       </c>
       <c r="J2" t="n">
-        <v>146.0</v>
+        <v>168.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -4261,10 +4468,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>515</v>
+        <v>556</v>
       </c>
       <c r="E2" t="s">
-        <v>517</v>
+        <v>558</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>63</v>
@@ -4276,7 +4483,7 @@
         <v>65</v>
       </c>
       <c r="I2" t="s">
-        <v>519</v>
+        <v>560</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>66</v>
@@ -4285,10 +4492,10 @@
         <v>67</v>
       </c>
       <c r="L2" t="s">
-        <v>522</v>
+        <v>563</v>
       </c>
       <c r="M2" t="n">
-        <v>4224661.0</v>
+        <v>4224889.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>68</v>
@@ -4348,7 +4555,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>515</v>
+        <v>556</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -4365,7 +4572,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>515</v>
+        <v>556</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -4382,7 +4589,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>515</v>
+        <v>556</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -4399,7 +4606,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>515</v>
+        <v>556</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -4416,7 +4623,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>515</v>
+        <v>556</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -4585,7 +4792,7 @@
         <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>519</v>
+        <v>560</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -4829,7 +5036,7 @@
         <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>519</v>
+        <v>560</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>66</v>
@@ -5044,7 +5251,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>516</v>
+        <v>557</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>103</v>
@@ -5127,7 +5334,7 @@
         <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>522</v>
+        <v>563</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>109</v>
@@ -5425,7 +5632,7 @@
         <v>213</v>
       </c>
       <c r="B2" t="s">
-        <v>522</v>
+        <v>563</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -5445,7 +5652,7 @@
         <v>215</v>
       </c>
       <c r="B3" t="s">
-        <v>522</v>
+        <v>563</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -5465,7 +5672,7 @@
         <v>222</v>
       </c>
       <c r="B4" t="s">
-        <v>522</v>
+        <v>563</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -5485,7 +5692,7 @@
         <v>223</v>
       </c>
       <c r="B5" t="s">
-        <v>522</v>
+        <v>563</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -5505,7 +5712,7 @@
         <v>224</v>
       </c>
       <c r="B6" t="s">
-        <v>522</v>
+        <v>563</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -5525,7 +5732,7 @@
         <v>225</v>
       </c>
       <c r="B7" t="s">
-        <v>522</v>
+        <v>563</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -5545,7 +5752,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>522</v>
+        <v>563</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -5604,7 +5811,7 @@
         <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>359</v>
+        <v>535</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>238</v>
@@ -5618,7 +5825,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>359</v>
+        <v>535</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>238</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="645">
   <si>
     <t>TestCases</t>
   </si>
@@ -1821,6 +1821,165 @@
   </si>
   <si>
     <t>ICIC87587224255</t>
+  </si>
+  <si>
+    <t>7088872075</t>
+  </si>
+  <si>
+    <t>ArvindVenkataraman84892@example.net</t>
+  </si>
+  <si>
+    <t>1980-08-26</t>
+  </si>
+  <si>
+    <t>707301306409325</t>
+  </si>
+  <si>
+    <t>1f0ae4a80826c32b</t>
+  </si>
+  <si>
+    <t>503621442775982</t>
+  </si>
+  <si>
+    <t>7243386663</t>
+  </si>
+  <si>
+    <t>Nilima</t>
+  </si>
+  <si>
+    <t>VickyBhasin86201@example.net</t>
+  </si>
+  <si>
+    <t>1972-02-11</t>
+  </si>
+  <si>
+    <t>232880661698386</t>
+  </si>
+  <si>
+    <t>e764a8a4ed1a8007</t>
+  </si>
+  <si>
+    <t>542054266859877</t>
+  </si>
+  <si>
+    <t>7435790676</t>
+  </si>
+  <si>
+    <t>Drishti</t>
+  </si>
+  <si>
+    <t>RickyMangal47529@example.net</t>
+  </si>
+  <si>
+    <t>1970-06-09</t>
+  </si>
+  <si>
+    <t>299554439722071</t>
+  </si>
+  <si>
+    <t>c20e69e17a2b11cf</t>
+  </si>
+  <si>
+    <t>937054826108404</t>
+  </si>
+  <si>
+    <t>IDEP671542988557CT2R</t>
+  </si>
+  <si>
+    <t>8811161811</t>
+  </si>
+  <si>
+    <t>Monica</t>
+  </si>
+  <si>
+    <t>SirishMemon46012@example.net</t>
+  </si>
+  <si>
+    <t>1972-05-22</t>
+  </si>
+  <si>
+    <t>333055724143385</t>
+  </si>
+  <si>
+    <t>787a74f0fd40046e</t>
+  </si>
+  <si>
+    <t>597906381239091</t>
+  </si>
+  <si>
+    <t>IDEP175643226863PKI2</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>59999828409</t>
+  </si>
+  <si>
+    <t>NRPBPO</t>
+  </si>
+  <si>
+    <t>59999712357</t>
+  </si>
+  <si>
+    <t>GEBAFU</t>
+  </si>
+  <si>
+    <t>59999278655</t>
+  </si>
+  <si>
+    <t>MQFJQJ</t>
+  </si>
+  <si>
+    <t>59999671612</t>
+  </si>
+  <si>
+    <t>EDHHNM</t>
+  </si>
+  <si>
+    <t>59999111683</t>
+  </si>
+  <si>
+    <t>NLHDHS</t>
+  </si>
+  <si>
+    <t>59999763891</t>
+  </si>
+  <si>
+    <t>IRSJGB</t>
+  </si>
+  <si>
+    <t>59999434446</t>
+  </si>
+  <si>
+    <t>BQOFCG</t>
+  </si>
+  <si>
+    <t>59999551416</t>
+  </si>
+  <si>
+    <t>CFIJSN</t>
+  </si>
+  <si>
+    <t>59999759505</t>
+  </si>
+  <si>
+    <t>UQSTAB</t>
+  </si>
+  <si>
+    <t>59999374491</t>
+  </si>
+  <si>
+    <t>MIMUKH</t>
   </si>
 </sst>
 </file>
@@ -2316,7 +2475,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>556</v>
+        <v>613</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2436,22 +2595,22 @@
         <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>563</v>
+        <v>620</v>
       </c>
       <c r="C2" t="s">
-        <v>535</v>
+        <v>624</v>
       </c>
       <c r="D2" t="s">
         <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>586</v>
+        <v>643</v>
       </c>
       <c r="F2" t="s">
         <v>243</v>
       </c>
       <c r="G2" t="s">
-        <v>587</v>
+        <v>644</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -2787,9 +2946,7 @@
       <c r="A2" t="s">
         <v>152</v>
       </c>
-      <c r="B2" t="s">
-        <v>569</v>
-      </c>
+      <c r="B2"/>
       <c r="C2" s="2" t="s">
         <v>155</v>
       </c>
@@ -2885,16 +3042,16 @@
         <v>156</v>
       </c>
       <c r="B2" t="s">
-        <v>561</v>
+        <v>618</v>
       </c>
       <c r="C2" t="s">
-        <v>562</v>
+        <v>619</v>
       </c>
       <c r="D2" t="s">
         <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>560</v>
+        <v>617</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -3880,13 +4037,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>557</v>
+        <v>614</v>
       </c>
       <c r="E2" t="s">
-        <v>558</v>
+        <v>615</v>
       </c>
       <c r="F2" t="s">
-        <v>559</v>
+        <v>616</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>219</v>
@@ -4468,10 +4625,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>556</v>
+        <v>613</v>
       </c>
       <c r="E2" t="s">
-        <v>558</v>
+        <v>615</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>63</v>
@@ -4483,7 +4640,7 @@
         <v>65</v>
       </c>
       <c r="I2" t="s">
-        <v>560</v>
+        <v>617</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>66</v>
@@ -4492,10 +4649,10 @@
         <v>67</v>
       </c>
       <c r="L2" t="s">
-        <v>563</v>
+        <v>620</v>
       </c>
       <c r="M2" t="n">
-        <v>4224889.0</v>
+        <v>4225052.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>68</v>
@@ -4555,7 +4712,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>556</v>
+        <v>613</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -4572,7 +4729,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>556</v>
+        <v>613</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -4589,7 +4746,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>556</v>
+        <v>613</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -4606,7 +4763,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>556</v>
+        <v>613</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -4623,7 +4780,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>556</v>
+        <v>613</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -4792,7 +4949,7 @@
         <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>560</v>
+        <v>617</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -5036,7 +5193,7 @@
         <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>560</v>
+        <v>617</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>66</v>
@@ -5251,7 +5408,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>557</v>
+        <v>614</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>103</v>
@@ -5334,7 +5491,7 @@
         <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>563</v>
+        <v>620</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>109</v>
@@ -5632,7 +5789,7 @@
         <v>213</v>
       </c>
       <c r="B2" t="s">
-        <v>563</v>
+        <v>620</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -5652,7 +5809,7 @@
         <v>215</v>
       </c>
       <c r="B3" t="s">
-        <v>563</v>
+        <v>620</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -5672,7 +5829,7 @@
         <v>222</v>
       </c>
       <c r="B4" t="s">
-        <v>563</v>
+        <v>620</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -5692,7 +5849,7 @@
         <v>223</v>
       </c>
       <c r="B5" t="s">
-        <v>563</v>
+        <v>620</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -5712,7 +5869,7 @@
         <v>224</v>
       </c>
       <c r="B6" t="s">
-        <v>563</v>
+        <v>620</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -5732,7 +5889,7 @@
         <v>225</v>
       </c>
       <c r="B7" t="s">
-        <v>563</v>
+        <v>620</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -5752,7 +5909,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>563</v>
+        <v>620</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -5811,7 +5968,7 @@
         <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>535</v>
+        <v>624</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>238</v>
@@ -5825,7 +5982,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>535</v>
+        <v>624</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>238</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="766">
   <si>
     <t>TestCases</t>
   </si>
@@ -1980,6 +1980,369 @@
   </si>
   <si>
     <t>MIMUKH</t>
+  </si>
+  <si>
+    <t>8880133339</t>
+  </si>
+  <si>
+    <t>Kasturba</t>
+  </si>
+  <si>
+    <t>SidPal86658@example.net</t>
+  </si>
+  <si>
+    <t>1991-04-06</t>
+  </si>
+  <si>
+    <t>646043790133946</t>
+  </si>
+  <si>
+    <t>d9f54cdee376c8ec</t>
+  </si>
+  <si>
+    <t>544686333351061</t>
+  </si>
+  <si>
+    <t>IDEP671546432129UX2W</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>59999182011</t>
+  </si>
+  <si>
+    <t>IRGGNF</t>
+  </si>
+  <si>
+    <t>59999994267</t>
+  </si>
+  <si>
+    <t>FIMGBB</t>
+  </si>
+  <si>
+    <t>59999272574</t>
+  </si>
+  <si>
+    <t>PMMBJA</t>
+  </si>
+  <si>
+    <t>59999527398</t>
+  </si>
+  <si>
+    <t>HEDDOF</t>
+  </si>
+  <si>
+    <t>59999603568</t>
+  </si>
+  <si>
+    <t>FJBUBI</t>
+  </si>
+  <si>
+    <t>59999118612</t>
+  </si>
+  <si>
+    <t>IQMKSJ</t>
+  </si>
+  <si>
+    <t>59999776149</t>
+  </si>
+  <si>
+    <t>ECBCDM</t>
+  </si>
+  <si>
+    <t>59999339578</t>
+  </si>
+  <si>
+    <t>ESSSGA</t>
+  </si>
+  <si>
+    <t>59999677455</t>
+  </si>
+  <si>
+    <t>BAFRUN</t>
+  </si>
+  <si>
+    <t>59999270972</t>
+  </si>
+  <si>
+    <t>CMOFHQ</t>
+  </si>
+  <si>
+    <t>7085341361</t>
+  </si>
+  <si>
+    <t>Yamini</t>
+  </si>
+  <si>
+    <t>AslamSarkar82429@example.net</t>
+  </si>
+  <si>
+    <t>1990-04-30</t>
+  </si>
+  <si>
+    <t>683413183990679</t>
+  </si>
+  <si>
+    <t>9122e3eea5d22f8a</t>
+  </si>
+  <si>
+    <t>183819206493753</t>
+  </si>
+  <si>
+    <t>IDEP5617474912193GDN</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>59999673571</t>
+  </si>
+  <si>
+    <t>AQQLUG</t>
+  </si>
+  <si>
+    <t>BNPL5761476729119675</t>
+  </si>
+  <si>
+    <t>59999247498</t>
+  </si>
+  <si>
+    <t>CMDTUT</t>
+  </si>
+  <si>
+    <t>59999919760</t>
+  </si>
+  <si>
+    <t>SMCQUH</t>
+  </si>
+  <si>
+    <t>59999387144</t>
+  </si>
+  <si>
+    <t>LHJFHK</t>
+  </si>
+  <si>
+    <t>59999667749</t>
+  </si>
+  <si>
+    <t>GIUPNK</t>
+  </si>
+  <si>
+    <t>59999526328</t>
+  </si>
+  <si>
+    <t>NUBLSH</t>
+  </si>
+  <si>
+    <t>59999817268</t>
+  </si>
+  <si>
+    <t>NJRFEA</t>
+  </si>
+  <si>
+    <t>59999904137</t>
+  </si>
+  <si>
+    <t>ODNQBR</t>
+  </si>
+  <si>
+    <t>59999915852</t>
+  </si>
+  <si>
+    <t>MKJADM</t>
+  </si>
+  <si>
+    <t>59999515429</t>
+  </si>
+  <si>
+    <t>CSEQKF</t>
+  </si>
+  <si>
+    <t>168.0</t>
+  </si>
+  <si>
+    <t>335577017085341361</t>
+  </si>
+  <si>
+    <t>ICIC95215572571</t>
+  </si>
+  <si>
+    <t>ICIC95389198276</t>
+  </si>
+  <si>
+    <t>9651707740</t>
+  </si>
+  <si>
+    <t>Sameedha</t>
+  </si>
+  <si>
+    <t>AmirNarasimhan73589@example.net</t>
+  </si>
+  <si>
+    <t>1995-12-05</t>
+  </si>
+  <si>
+    <t>016479967018506</t>
+  </si>
+  <si>
+    <t>f4d727acd36d9790</t>
+  </si>
+  <si>
+    <t>334375751621304</t>
+  </si>
+  <si>
+    <t>IDEP517648332388UG3H</t>
+  </si>
+  <si>
+    <t>59999522174</t>
+  </si>
+  <si>
+    <t>GSCTSU</t>
+  </si>
+  <si>
+    <t>BNPL1576485388287124</t>
+  </si>
+  <si>
+    <t>59999559725</t>
+  </si>
+  <si>
+    <t>PFDJKK</t>
+  </si>
+  <si>
+    <t>59999411053</t>
+  </si>
+  <si>
+    <t>SFHMCN</t>
+  </si>
+  <si>
+    <t>59999227947</t>
+  </si>
+  <si>
+    <t>TBNLMI</t>
+  </si>
+  <si>
+    <t>59999135095</t>
+  </si>
+  <si>
+    <t>JSGQGM</t>
+  </si>
+  <si>
+    <t>59999442988</t>
+  </si>
+  <si>
+    <t>HUIQRD</t>
+  </si>
+  <si>
+    <t>59999266393</t>
+  </si>
+  <si>
+    <t>NBLQGU</t>
+  </si>
+  <si>
+    <t>59999692973</t>
+  </si>
+  <si>
+    <t>EMSBJO</t>
+  </si>
+  <si>
+    <t>59999235126</t>
+  </si>
+  <si>
+    <t>MSTFER</t>
+  </si>
+  <si>
+    <t>59999271733</t>
+  </si>
+  <si>
+    <t>FHQSRB</t>
+  </si>
+  <si>
+    <t>7820933257</t>
+  </si>
+  <si>
+    <t>Swati</t>
+  </si>
+  <si>
+    <t>AadilSheth78722@example.net</t>
+  </si>
+  <si>
+    <t>1983-06-20</t>
+  </si>
+  <si>
+    <t>725571090989736</t>
+  </si>
+  <si>
+    <t>81141aa2dc0c8bdf</t>
+  </si>
+  <si>
+    <t>378661639241796</t>
+  </si>
+  <si>
+    <t>IDEP576148919398DMOC</t>
+  </si>
+  <si>
+    <t>9030559692</t>
+  </si>
+  <si>
+    <t>Madhavi</t>
+  </si>
+  <si>
+    <t>KartikVora42506@example.net</t>
+  </si>
+  <si>
+    <t>1984-01-28</t>
+  </si>
+  <si>
+    <t>507012259648528</t>
+  </si>
+  <si>
+    <t>54bfddadcc22efd9</t>
+  </si>
+  <si>
+    <t>394516075645043</t>
+  </si>
+  <si>
+    <t>6277472643</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>RadheAurora64660@example.net</t>
+  </si>
+  <si>
+    <t>1972-09-04</t>
+  </si>
+  <si>
+    <t>113971041797461</t>
+  </si>
+  <si>
+    <t>21ae6f8f7ae97b6b</t>
+  </si>
+  <si>
+    <t>624270935632633</t>
+  </si>
+  <si>
+    <t>IDEP5617495865325V84</t>
   </si>
 </sst>
 </file>
@@ -2475,7 +2838,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>613</v>
+        <v>758</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2595,22 +2958,22 @@
         <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>620</v>
+        <v>765</v>
       </c>
       <c r="C2" t="s">
-        <v>624</v>
+        <v>655</v>
       </c>
       <c r="D2" t="s">
         <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>643</v>
+        <v>741</v>
       </c>
       <c r="F2" t="s">
         <v>243</v>
       </c>
       <c r="G2" t="s">
-        <v>644</v>
+        <v>742</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -2946,7 +3309,9 @@
       <c r="A2" t="s">
         <v>152</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>724</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>155</v>
       </c>
@@ -3042,16 +3407,16 @@
         <v>156</v>
       </c>
       <c r="B2" t="s">
-        <v>618</v>
+        <v>763</v>
       </c>
       <c r="C2" t="s">
-        <v>619</v>
+        <v>764</v>
       </c>
       <c r="D2" t="s">
         <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>617</v>
+        <v>762</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -3154,7 +3519,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>589</v>
+        <v>711</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>173</v>
@@ -3166,7 +3531,7 @@
         <v>174</v>
       </c>
       <c r="G2" t="s">
-        <v>590</v>
+        <v>712</v>
       </c>
       <c r="H2" s="21">
         <v>44798.630833333336</v>
@@ -3175,7 +3540,7 @@
         <v>175</v>
       </c>
       <c r="J2" t="n">
-        <v>168.0</v>
+        <v>151.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -4037,13 +4402,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>614</v>
+        <v>759</v>
       </c>
       <c r="E2" t="s">
-        <v>615</v>
+        <v>760</v>
       </c>
       <c r="F2" t="s">
-        <v>616</v>
+        <v>761</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>219</v>
@@ -4477,7 +4842,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>589</v>
+        <v>711</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>173</v>
@@ -4489,7 +4854,7 @@
         <v>181</v>
       </c>
       <c r="G2" t="s">
-        <v>591</v>
+        <v>713</v>
       </c>
       <c r="H2" s="21">
         <v>44798.630833333336</v>
@@ -4498,7 +4863,7 @@
         <v>175</v>
       </c>
       <c r="J2" t="n">
-        <v>168.0</v>
+        <v>151.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -4625,10 +4990,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>613</v>
+        <v>758</v>
       </c>
       <c r="E2" t="s">
-        <v>615</v>
+        <v>760</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>63</v>
@@ -4640,7 +5005,7 @@
         <v>65</v>
       </c>
       <c r="I2" t="s">
-        <v>617</v>
+        <v>762</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>66</v>
@@ -4649,10 +5014,10 @@
         <v>67</v>
       </c>
       <c r="L2" t="s">
-        <v>620</v>
+        <v>765</v>
       </c>
       <c r="M2" t="n">
-        <v>4225052.0</v>
+        <v>4225207.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>68</v>
@@ -4712,7 +5077,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>613</v>
+        <v>758</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -4729,7 +5094,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>613</v>
+        <v>758</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -4746,7 +5111,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>613</v>
+        <v>758</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -4763,7 +5128,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>613</v>
+        <v>758</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -4780,7 +5145,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>613</v>
+        <v>758</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -4949,7 +5314,7 @@
         <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>617</v>
+        <v>762</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -5193,7 +5558,7 @@
         <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>617</v>
+        <v>762</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>66</v>
@@ -5408,7 +5773,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>614</v>
+        <v>759</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>103</v>
@@ -5491,7 +5856,7 @@
         <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>620</v>
+        <v>765</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>109</v>
@@ -5789,7 +6154,7 @@
         <v>213</v>
       </c>
       <c r="B2" t="s">
-        <v>620</v>
+        <v>765</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -5809,7 +6174,7 @@
         <v>215</v>
       </c>
       <c r="B3" t="s">
-        <v>620</v>
+        <v>765</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -5829,7 +6194,7 @@
         <v>222</v>
       </c>
       <c r="B4" t="s">
-        <v>620</v>
+        <v>765</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -5849,7 +6214,7 @@
         <v>223</v>
       </c>
       <c r="B5" t="s">
-        <v>620</v>
+        <v>765</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -5869,7 +6234,7 @@
         <v>224</v>
       </c>
       <c r="B6" t="s">
-        <v>620</v>
+        <v>765</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -5889,7 +6254,7 @@
         <v>225</v>
       </c>
       <c r="B7" t="s">
-        <v>620</v>
+        <v>765</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -5909,7 +6274,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>620</v>
+        <v>765</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -5968,7 +6333,7 @@
         <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>624</v>
+        <v>655</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>238</v>
@@ -5982,7 +6347,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>624</v>
+        <v>655</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>238</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2606" uniqueCount="919">
   <si>
     <t>TestCases</t>
   </si>
@@ -2343,6 +2343,465 @@
   </si>
   <si>
     <t>IDEP5617495865325V84</t>
+  </si>
+  <si>
+    <t>6967015805</t>
+  </si>
+  <si>
+    <t>DineshKadakia22303@example.net</t>
+  </si>
+  <si>
+    <t>1986-03-31</t>
+  </si>
+  <si>
+    <t>837279753674240</t>
+  </si>
+  <si>
+    <t>2179698d1223ba9f</t>
+  </si>
+  <si>
+    <t>391680501287656</t>
+  </si>
+  <si>
+    <t>IDEP657168368276J3XV</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>59999606497</t>
+  </si>
+  <si>
+    <t>RQHBKH</t>
+  </si>
+  <si>
+    <t>59999144243</t>
+  </si>
+  <si>
+    <t>OEGRND</t>
+  </si>
+  <si>
+    <t>59999332171</t>
+  </si>
+  <si>
+    <t>DBHLGL</t>
+  </si>
+  <si>
+    <t>59999417990</t>
+  </si>
+  <si>
+    <t>EPSRED</t>
+  </si>
+  <si>
+    <t>59999715874</t>
+  </si>
+  <si>
+    <t>BHJRQB</t>
+  </si>
+  <si>
+    <t>59999278996</t>
+  </si>
+  <si>
+    <t>MMFFLC</t>
+  </si>
+  <si>
+    <t>59999455602</t>
+  </si>
+  <si>
+    <t>POIAMD</t>
+  </si>
+  <si>
+    <t>59999493071</t>
+  </si>
+  <si>
+    <t>RFGNNF</t>
+  </si>
+  <si>
+    <t>59999170684</t>
+  </si>
+  <si>
+    <t>SOKMGT</t>
+  </si>
+  <si>
+    <t>59999138460</t>
+  </si>
+  <si>
+    <t>IRINBC</t>
+  </si>
+  <si>
+    <t>9135854536</t>
+  </si>
+  <si>
+    <t>Hina</t>
+  </si>
+  <si>
+    <t>PrasoonBadami94573@example.net</t>
+  </si>
+  <si>
+    <t>1974-12-18</t>
+  </si>
+  <si>
+    <t>281978931869603</t>
+  </si>
+  <si>
+    <t>e897545801c0fc34</t>
+  </si>
+  <si>
+    <t>618084484368277</t>
+  </si>
+  <si>
+    <t>IDEP1756615892682X5V</t>
+  </si>
+  <si>
+    <t>9631995612</t>
+  </si>
+  <si>
+    <t>RatanBail78146@example.net</t>
+  </si>
+  <si>
+    <t>1987-09-13</t>
+  </si>
+  <si>
+    <t>091078226312409</t>
+  </si>
+  <si>
+    <t>989c6d45e235b5bd</t>
+  </si>
+  <si>
+    <t>157174850633201</t>
+  </si>
+  <si>
+    <t>IDEP517661885634Z2HC</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>59999877019</t>
+  </si>
+  <si>
+    <t>HQNUPU</t>
+  </si>
+  <si>
+    <t>BNPL1657628889629672</t>
+  </si>
+  <si>
+    <t>59999800335</t>
+  </si>
+  <si>
+    <t>BPARCT</t>
+  </si>
+  <si>
+    <t>59999065341</t>
+  </si>
+  <si>
+    <t>RCRRCI</t>
+  </si>
+  <si>
+    <t>59999203221</t>
+  </si>
+  <si>
+    <t>TNTQDP</t>
+  </si>
+  <si>
+    <t>59999464171</t>
+  </si>
+  <si>
+    <t>JEFPNR</t>
+  </si>
+  <si>
+    <t>59999600722</t>
+  </si>
+  <si>
+    <t>GNDNQM</t>
+  </si>
+  <si>
+    <t>59999915349</t>
+  </si>
+  <si>
+    <t>KPSLQK</t>
+  </si>
+  <si>
+    <t>59999158873</t>
+  </si>
+  <si>
+    <t>BMDFKD</t>
+  </si>
+  <si>
+    <t>59999335540</t>
+  </si>
+  <si>
+    <t>ROPIQP</t>
+  </si>
+  <si>
+    <t>59999008678</t>
+  </si>
+  <si>
+    <t>CBLLKL</t>
+  </si>
+  <si>
+    <t>151.0</t>
+  </si>
+  <si>
+    <t>335577019631995612</t>
+  </si>
+  <si>
+    <t>ICIC98271645374</t>
+  </si>
+  <si>
+    <t>ICIC94176479195</t>
+  </si>
+  <si>
+    <t>6460395891</t>
+  </si>
+  <si>
+    <t>Kamini</t>
+  </si>
+  <si>
+    <t>AmirKashyap55263@example.net</t>
+  </si>
+  <si>
+    <t>1983-09-07</t>
+  </si>
+  <si>
+    <t>186645150646949</t>
+  </si>
+  <si>
+    <t>85d37471d81eb31e</t>
+  </si>
+  <si>
+    <t>487350908391742</t>
+  </si>
+  <si>
+    <t>IDEP6517626653689OSV</t>
+  </si>
+  <si>
+    <t>7652590572</t>
+  </si>
+  <si>
+    <t>Ambika</t>
+  </si>
+  <si>
+    <t>MohanlalDixit17680@example.net</t>
+  </si>
+  <si>
+    <t>1974-09-30</t>
+  </si>
+  <si>
+    <t>111146979949374</t>
+  </si>
+  <si>
+    <t>f2305d30929c358b</t>
+  </si>
+  <si>
+    <t>193665221214718</t>
+  </si>
+  <si>
+    <t>IDEP165762747579T1WL</t>
+  </si>
+  <si>
+    <t>9503256127</t>
+  </si>
+  <si>
+    <t>Komal</t>
+  </si>
+  <si>
+    <t>ParvezChaudhary30660@example.net</t>
+  </si>
+  <si>
+    <t>1970-10-31</t>
+  </si>
+  <si>
+    <t>644606832402891</t>
+  </si>
+  <si>
+    <t>01c13d9f3356e0a0</t>
+  </si>
+  <si>
+    <t>388007227684567</t>
+  </si>
+  <si>
+    <t>IDEP675163887752AYRM</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>59999420297</t>
+  </si>
+  <si>
+    <t>BULICF</t>
+  </si>
+  <si>
+    <t>BNPL1567632768885184</t>
+  </si>
+  <si>
+    <t>59999188278</t>
+  </si>
+  <si>
+    <t>EPLGJQ</t>
+  </si>
+  <si>
+    <t>59999674951</t>
+  </si>
+  <si>
+    <t>AQNPNL</t>
+  </si>
+  <si>
+    <t>59999124687</t>
+  </si>
+  <si>
+    <t>LKCPFI</t>
+  </si>
+  <si>
+    <t>59999119476</t>
+  </si>
+  <si>
+    <t>PMPUPU</t>
+  </si>
+  <si>
+    <t>59999090333</t>
+  </si>
+  <si>
+    <t>IPHOLE</t>
+  </si>
+  <si>
+    <t>59999900707</t>
+  </si>
+  <si>
+    <t>HBTLET</t>
+  </si>
+  <si>
+    <t>59999951911</t>
+  </si>
+  <si>
+    <t>AQBLUC</t>
+  </si>
+  <si>
+    <t>59999249433</t>
+  </si>
+  <si>
+    <t>QDQULO</t>
+  </si>
+  <si>
+    <t>59999249813</t>
+  </si>
+  <si>
+    <t>USMKAL</t>
+  </si>
+  <si>
+    <t>9576630615</t>
+  </si>
+  <si>
+    <t>Akanksha</t>
+  </si>
+  <si>
+    <t>CharlieKara19730@example.net</t>
+  </si>
+  <si>
+    <t>1986-06-29</t>
+  </si>
+  <si>
+    <t>005485534525751</t>
+  </si>
+  <si>
+    <t>4fa2f446ccea2eea</t>
+  </si>
+  <si>
+    <t>067918110620203</t>
+  </si>
+  <si>
+    <t>IDEP715664262781LJ2Q</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>59999079301</t>
+  </si>
+  <si>
+    <t>FDICGS</t>
+  </si>
+  <si>
+    <t>BNPL1756644489564183</t>
+  </si>
+  <si>
+    <t>59999731026</t>
+  </si>
+  <si>
+    <t>MRMPUD</t>
+  </si>
+  <si>
+    <t>59999274833</t>
+  </si>
+  <si>
+    <t>HEJRFC</t>
+  </si>
+  <si>
+    <t>59999222039</t>
+  </si>
+  <si>
+    <t>PSOQUS</t>
+  </si>
+  <si>
+    <t>59999167398</t>
+  </si>
+  <si>
+    <t>ITAGQL</t>
+  </si>
+  <si>
+    <t>59999646555</t>
+  </si>
+  <si>
+    <t>QGGHIL</t>
+  </si>
+  <si>
+    <t>59999834319</t>
+  </si>
+  <si>
+    <t>TBEJLN</t>
+  </si>
+  <si>
+    <t>59999669855</t>
+  </si>
+  <si>
+    <t>CETEPE</t>
+  </si>
+  <si>
+    <t>59999955400</t>
+  </si>
+  <si>
+    <t>IPTPHF</t>
+  </si>
+  <si>
+    <t>59999777542</t>
+  </si>
+  <si>
+    <t>RAQAMJ</t>
+  </si>
+  <si>
+    <t>92.0</t>
+  </si>
+  <si>
+    <t>335577019576630615</t>
+  </si>
+  <si>
+    <t>ICIC88209629618</t>
+  </si>
+  <si>
+    <t>ICIC91861860850</t>
   </si>
 </sst>
 </file>
@@ -2838,7 +3297,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>758</v>
+        <v>885</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2958,22 +3417,22 @@
         <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>765</v>
+        <v>892</v>
       </c>
       <c r="C2" t="s">
-        <v>655</v>
+        <v>391</v>
       </c>
       <c r="D2" t="s">
         <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>741</v>
+        <v>913</v>
       </c>
       <c r="F2" t="s">
         <v>243</v>
       </c>
       <c r="G2" t="s">
-        <v>742</v>
+        <v>914</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -3310,7 +3769,7 @@
         <v>152</v>
       </c>
       <c r="B2" t="s">
-        <v>724</v>
+        <v>896</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>155</v>
@@ -3407,16 +3866,16 @@
         <v>156</v>
       </c>
       <c r="B2" t="s">
-        <v>763</v>
+        <v>890</v>
       </c>
       <c r="C2" t="s">
-        <v>764</v>
+        <v>891</v>
       </c>
       <c r="D2" t="s">
         <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>762</v>
+        <v>889</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -3519,7 +3978,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>711</v>
+        <v>916</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>173</v>
@@ -3531,7 +3990,7 @@
         <v>174</v>
       </c>
       <c r="G2" t="s">
-        <v>712</v>
+        <v>917</v>
       </c>
       <c r="H2" s="21">
         <v>44798.630833333336</v>
@@ -3540,7 +3999,7 @@
         <v>175</v>
       </c>
       <c r="J2" t="n">
-        <v>151.0</v>
+        <v>193.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -4402,13 +4861,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>759</v>
+        <v>886</v>
       </c>
       <c r="E2" t="s">
-        <v>760</v>
+        <v>887</v>
       </c>
       <c r="F2" t="s">
-        <v>761</v>
+        <v>888</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>219</v>
@@ -4842,7 +5301,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>711</v>
+        <v>916</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>173</v>
@@ -4854,7 +5313,7 @@
         <v>181</v>
       </c>
       <c r="G2" t="s">
-        <v>713</v>
+        <v>918</v>
       </c>
       <c r="H2" s="21">
         <v>44798.630833333336</v>
@@ -4863,7 +5322,7 @@
         <v>175</v>
       </c>
       <c r="J2" t="n">
-        <v>151.0</v>
+        <v>193.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -4990,10 +5449,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>758</v>
+        <v>885</v>
       </c>
       <c r="E2" t="s">
-        <v>760</v>
+        <v>887</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>63</v>
@@ -5005,7 +5464,7 @@
         <v>65</v>
       </c>
       <c r="I2" t="s">
-        <v>762</v>
+        <v>889</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>66</v>
@@ -5014,10 +5473,10 @@
         <v>67</v>
       </c>
       <c r="L2" t="s">
-        <v>765</v>
+        <v>892</v>
       </c>
       <c r="M2" t="n">
-        <v>4225207.0</v>
+        <v>4225413.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>68</v>
@@ -5077,7 +5536,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>758</v>
+        <v>885</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -5094,7 +5553,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>758</v>
+        <v>885</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -5111,7 +5570,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>758</v>
+        <v>885</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -5128,7 +5587,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>758</v>
+        <v>885</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -5145,7 +5604,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>758</v>
+        <v>885</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -5314,7 +5773,7 @@
         <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>762</v>
+        <v>889</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -5558,7 +6017,7 @@
         <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>762</v>
+        <v>889</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>66</v>
@@ -5773,7 +6232,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>759</v>
+        <v>886</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>103</v>
@@ -5856,7 +6315,7 @@
         <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>765</v>
+        <v>892</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>109</v>
@@ -6154,7 +6613,7 @@
         <v>213</v>
       </c>
       <c r="B2" t="s">
-        <v>765</v>
+        <v>892</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -6174,7 +6633,7 @@
         <v>215</v>
       </c>
       <c r="B3" t="s">
-        <v>765</v>
+        <v>892</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -6194,7 +6653,7 @@
         <v>222</v>
       </c>
       <c r="B4" t="s">
-        <v>765</v>
+        <v>892</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -6214,7 +6673,7 @@
         <v>223</v>
       </c>
       <c r="B5" t="s">
-        <v>765</v>
+        <v>892</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -6234,7 +6693,7 @@
         <v>224</v>
       </c>
       <c r="B6" t="s">
-        <v>765</v>
+        <v>892</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -6254,7 +6713,7 @@
         <v>225</v>
       </c>
       <c r="B7" t="s">
-        <v>765</v>
+        <v>892</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -6274,7 +6733,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>765</v>
+        <v>892</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -6333,7 +6792,7 @@
         <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>655</v>
+        <v>391</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>238</v>
@@ -6347,7 +6806,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>655</v>
+        <v>391</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>238</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2606" uniqueCount="919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3468" uniqueCount="1239">
   <si>
     <t>TestCases</t>
   </si>
@@ -2802,6 +2802,966 @@
   </si>
   <si>
     <t>ICIC91861860850</t>
+  </si>
+  <si>
+    <t>7758020569</t>
+  </si>
+  <si>
+    <t>Kiran</t>
+  </si>
+  <si>
+    <t>MahmoodGeorge29017@example.net</t>
+  </si>
+  <si>
+    <t>1987-01-10</t>
+  </si>
+  <si>
+    <t>566847795645423</t>
+  </si>
+  <si>
+    <t>f1694dd58b1335e6</t>
+  </si>
+  <si>
+    <t>420102947413189</t>
+  </si>
+  <si>
+    <t>6686995957</t>
+  </si>
+  <si>
+    <t>Devika</t>
+  </si>
+  <si>
+    <t>HimeshGaba37057@example.net</t>
+  </si>
+  <si>
+    <t>1973-04-30</t>
+  </si>
+  <si>
+    <t>828904770785908</t>
+  </si>
+  <si>
+    <t>af7b878b00eb8cf0</t>
+  </si>
+  <si>
+    <t>035914900495285</t>
+  </si>
+  <si>
+    <t>9313819679</t>
+  </si>
+  <si>
+    <t>Aastha</t>
+  </si>
+  <si>
+    <t>MohanlalPanchal89578@example.net</t>
+  </si>
+  <si>
+    <t>1981-08-19</t>
+  </si>
+  <si>
+    <t>793275514206126</t>
+  </si>
+  <si>
+    <t>e320a642ddec52ef</t>
+  </si>
+  <si>
+    <t>202364849283193</t>
+  </si>
+  <si>
+    <t>6116939663</t>
+  </si>
+  <si>
+    <t>Jasmin</t>
+  </si>
+  <si>
+    <t>SurajMander15357@example.net</t>
+  </si>
+  <si>
+    <t>1985-08-31</t>
+  </si>
+  <si>
+    <t>310474857926697</t>
+  </si>
+  <si>
+    <t>a7a408eac9ae3db0</t>
+  </si>
+  <si>
+    <t>626818848818653</t>
+  </si>
+  <si>
+    <t>6159169946</t>
+  </si>
+  <si>
+    <t>Geetanjali</t>
+  </si>
+  <si>
+    <t>KarimComar78428@example.net</t>
+  </si>
+  <si>
+    <t>1988-06-17</t>
+  </si>
+  <si>
+    <t>348017604829494</t>
+  </si>
+  <si>
+    <t>1f6c2b80e4248525</t>
+  </si>
+  <si>
+    <t>277004830999072</t>
+  </si>
+  <si>
+    <t>7710162104</t>
+  </si>
+  <si>
+    <t>Urmila</t>
+  </si>
+  <si>
+    <t>DarpanBaria25937@example.net</t>
+  </si>
+  <si>
+    <t>1984-06-15</t>
+  </si>
+  <si>
+    <t>356759966980709</t>
+  </si>
+  <si>
+    <t>1070bce178d571df</t>
+  </si>
+  <si>
+    <t>853289671768957</t>
+  </si>
+  <si>
+    <t>8155338809</t>
+  </si>
+  <si>
+    <t>Lakshmi</t>
+  </si>
+  <si>
+    <t>AayushmanMeda36293@example.net</t>
+  </si>
+  <si>
+    <t>1972-05-28</t>
+  </si>
+  <si>
+    <t>523663054105930</t>
+  </si>
+  <si>
+    <t>846de72eb6b45481</t>
+  </si>
+  <si>
+    <t>290339069911742</t>
+  </si>
+  <si>
+    <t>IDEP761558581774QTEF</t>
+  </si>
+  <si>
+    <t>8552174607</t>
+  </si>
+  <si>
+    <t>Savita</t>
+  </si>
+  <si>
+    <t>SureshGarde34741@example.net</t>
+  </si>
+  <si>
+    <t>1973-06-06</t>
+  </si>
+  <si>
+    <t>736138967186460</t>
+  </si>
+  <si>
+    <t>ff21092833e5407c</t>
+  </si>
+  <si>
+    <t>291558171418861</t>
+  </si>
+  <si>
+    <t>IDEP615758596568LFRE</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>59999191963</t>
+  </si>
+  <si>
+    <t>MHEKJL</t>
+  </si>
+  <si>
+    <t>59999830026</t>
+  </si>
+  <si>
+    <t>LGNDGC</t>
+  </si>
+  <si>
+    <t>59999910398</t>
+  </si>
+  <si>
+    <t>UMGAKR</t>
+  </si>
+  <si>
+    <t>59999514394</t>
+  </si>
+  <si>
+    <t>SGEQPL</t>
+  </si>
+  <si>
+    <t>59999623423</t>
+  </si>
+  <si>
+    <t>BBHFBJ</t>
+  </si>
+  <si>
+    <t>59999696008</t>
+  </si>
+  <si>
+    <t>LDQGNU</t>
+  </si>
+  <si>
+    <t>59999374148</t>
+  </si>
+  <si>
+    <t>KCAPFJ</t>
+  </si>
+  <si>
+    <t>59999063599</t>
+  </si>
+  <si>
+    <t>BGPTFC</t>
+  </si>
+  <si>
+    <t>59999579981</t>
+  </si>
+  <si>
+    <t>ODKNET</t>
+  </si>
+  <si>
+    <t>59999963820</t>
+  </si>
+  <si>
+    <t>OODSHL</t>
+  </si>
+  <si>
+    <t>8449338585</t>
+  </si>
+  <si>
+    <t>Radha</t>
+  </si>
+  <si>
+    <t>AslamKar29725@example.net</t>
+  </si>
+  <si>
+    <t>1995-04-09</t>
+  </si>
+  <si>
+    <t>225902509093890</t>
+  </si>
+  <si>
+    <t>580b4f2a46943ea9</t>
+  </si>
+  <si>
+    <t>051777679975939</t>
+  </si>
+  <si>
+    <t>IDEP617551887921TYPS</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>59999724378</t>
+  </si>
+  <si>
+    <t>RCHUMK</t>
+  </si>
+  <si>
+    <t>BNPL6175513565654289</t>
+  </si>
+  <si>
+    <t>59999494333</t>
+  </si>
+  <si>
+    <t>HLCSNJ</t>
+  </si>
+  <si>
+    <t>59999796500</t>
+  </si>
+  <si>
+    <t>MBANCG</t>
+  </si>
+  <si>
+    <t>59999434918</t>
+  </si>
+  <si>
+    <t>TDTCGP</t>
+  </si>
+  <si>
+    <t>59999940383</t>
+  </si>
+  <si>
+    <t>PMSMFI</t>
+  </si>
+  <si>
+    <t>59999601909</t>
+  </si>
+  <si>
+    <t>MIUBEP</t>
+  </si>
+  <si>
+    <t>59999616823</t>
+  </si>
+  <si>
+    <t>OIBTAQ</t>
+  </si>
+  <si>
+    <t>59999383448</t>
+  </si>
+  <si>
+    <t>QPJULR</t>
+  </si>
+  <si>
+    <t>59999149573</t>
+  </si>
+  <si>
+    <t>DCHCSQ</t>
+  </si>
+  <si>
+    <t>59999002639</t>
+  </si>
+  <si>
+    <t>HFNGIH</t>
+  </si>
+  <si>
+    <t>193.0</t>
+  </si>
+  <si>
+    <t>335577018449338585</t>
+  </si>
+  <si>
+    <t>ICIC86981760794</t>
+  </si>
+  <si>
+    <t>ICIC99679907948</t>
+  </si>
+  <si>
+    <t>9230366693</t>
+  </si>
+  <si>
+    <t>Kunti</t>
+  </si>
+  <si>
+    <t>HimeshAhluwalia55623@example.net</t>
+  </si>
+  <si>
+    <t>1972-06-06</t>
+  </si>
+  <si>
+    <t>261529393823762</t>
+  </si>
+  <si>
+    <t>129fd052adf848c5</t>
+  </si>
+  <si>
+    <t>144219338294666</t>
+  </si>
+  <si>
+    <t>IDEP7165517362746UVJ</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>59999149053</t>
+  </si>
+  <si>
+    <t>FJJRKM</t>
+  </si>
+  <si>
+    <t>BNPL1576528112888521</t>
+  </si>
+  <si>
+    <t>59999908387</t>
+  </si>
+  <si>
+    <t>KPIRLD</t>
+  </si>
+  <si>
+    <t>59999522135</t>
+  </si>
+  <si>
+    <t>BHNLGE</t>
+  </si>
+  <si>
+    <t>59999449994</t>
+  </si>
+  <si>
+    <t>BULHMM</t>
+  </si>
+  <si>
+    <t>59999274980</t>
+  </si>
+  <si>
+    <t>IDPHQC</t>
+  </si>
+  <si>
+    <t>59999605812</t>
+  </si>
+  <si>
+    <t>UOMUCD</t>
+  </si>
+  <si>
+    <t>59999574655</t>
+  </si>
+  <si>
+    <t>HJOANS</t>
+  </si>
+  <si>
+    <t>59999773805</t>
+  </si>
+  <si>
+    <t>BKPLBF</t>
+  </si>
+  <si>
+    <t>59999784410</t>
+  </si>
+  <si>
+    <t>LUMKGL</t>
+  </si>
+  <si>
+    <t>59999971178</t>
+  </si>
+  <si>
+    <t>EGUHKO</t>
+  </si>
+  <si>
+    <t>335577019230366693</t>
+  </si>
+  <si>
+    <t>ICIC94203676962</t>
+  </si>
+  <si>
+    <t>ICIC93362145430</t>
+  </si>
+  <si>
+    <t>8280743294</t>
+  </si>
+  <si>
+    <t>Lata</t>
+  </si>
+  <si>
+    <t>KartikMandal53746@example.net</t>
+  </si>
+  <si>
+    <t>1970-11-23</t>
+  </si>
+  <si>
+    <t>907281172743908</t>
+  </si>
+  <si>
+    <t>6e7e6e9df58a0dd5</t>
+  </si>
+  <si>
+    <t>593797416412579</t>
+  </si>
+  <si>
+    <t>IDEP157616585813N5J8</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>59999505813</t>
+  </si>
+  <si>
+    <t>JNNDBK</t>
+  </si>
+  <si>
+    <t>BNPL1657166883862713</t>
+  </si>
+  <si>
+    <t>59999624013</t>
+  </si>
+  <si>
+    <t>OTHARH</t>
+  </si>
+  <si>
+    <t>59999148646</t>
+  </si>
+  <si>
+    <t>SHEHDU</t>
+  </si>
+  <si>
+    <t>59999869229</t>
+  </si>
+  <si>
+    <t>ONSNMN</t>
+  </si>
+  <si>
+    <t>59999903243</t>
+  </si>
+  <si>
+    <t>EQFCRH</t>
+  </si>
+  <si>
+    <t>59999555505</t>
+  </si>
+  <si>
+    <t>IDAFQM</t>
+  </si>
+  <si>
+    <t>59999374154</t>
+  </si>
+  <si>
+    <t>SNPULS</t>
+  </si>
+  <si>
+    <t>59999334089</t>
+  </si>
+  <si>
+    <t>LURIUM</t>
+  </si>
+  <si>
+    <t>59999245839</t>
+  </si>
+  <si>
+    <t>OHAOJJ</t>
+  </si>
+  <si>
+    <t>59999702388</t>
+  </si>
+  <si>
+    <t>PUATAS</t>
+  </si>
+  <si>
+    <t>157.0</t>
+  </si>
+  <si>
+    <t>335577018280743294</t>
+  </si>
+  <si>
+    <t>ICIC84693309192</t>
+  </si>
+  <si>
+    <t>ICIC83384485794</t>
+  </si>
+  <si>
+    <t>6651698177</t>
+  </si>
+  <si>
+    <t>Amrita</t>
+  </si>
+  <si>
+    <t>FakaruddinSuri81401@example.net</t>
+  </si>
+  <si>
+    <t>1994-12-23</t>
+  </si>
+  <si>
+    <t>744246320330616</t>
+  </si>
+  <si>
+    <t>6456cbf217fbea67</t>
+  </si>
+  <si>
+    <t>654110061750648</t>
+  </si>
+  <si>
+    <t>IDEP67151884537571VL</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>59999520879</t>
+  </si>
+  <si>
+    <t>SEBDKB</t>
+  </si>
+  <si>
+    <t>BNPL5167182416121924</t>
+  </si>
+  <si>
+    <t>59999980535</t>
+  </si>
+  <si>
+    <t>DFOLMK</t>
+  </si>
+  <si>
+    <t>59999864086</t>
+  </si>
+  <si>
+    <t>ODIMML</t>
+  </si>
+  <si>
+    <t>59999743530</t>
+  </si>
+  <si>
+    <t>RKPUHQ</t>
+  </si>
+  <si>
+    <t>59999559191</t>
+  </si>
+  <si>
+    <t>IBEGMK</t>
+  </si>
+  <si>
+    <t>59999994880</t>
+  </si>
+  <si>
+    <t>KGLHKA</t>
+  </si>
+  <si>
+    <t>59999024604</t>
+  </si>
+  <si>
+    <t>TDTDAQ</t>
+  </si>
+  <si>
+    <t>59999235745</t>
+  </si>
+  <si>
+    <t>BOQFGC</t>
+  </si>
+  <si>
+    <t>59999345973</t>
+  </si>
+  <si>
+    <t>PTSEBD</t>
+  </si>
+  <si>
+    <t>59999320784</t>
+  </si>
+  <si>
+    <t>JJSSHL</t>
+  </si>
+  <si>
+    <t>164.0</t>
+  </si>
+  <si>
+    <t>335577016651698177</t>
+  </si>
+  <si>
+    <t>ICIC94264823046</t>
+  </si>
+  <si>
+    <t>ICIC82523089603</t>
+  </si>
+  <si>
+    <t>9133947746</t>
+  </si>
+  <si>
+    <t>Urmi</t>
+  </si>
+  <si>
+    <t>AbhishekDas30330@example.net</t>
+  </si>
+  <si>
+    <t>1988-06-06</t>
+  </si>
+  <si>
+    <t>162156284739756</t>
+  </si>
+  <si>
+    <t>fe6312f24006c3d2</t>
+  </si>
+  <si>
+    <t>074290923820177</t>
+  </si>
+  <si>
+    <t>IDEP516719884468RBAX</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>59999777450</t>
+  </si>
+  <si>
+    <t>CQUSEM</t>
+  </si>
+  <si>
+    <t>BNPL7165191921483641</t>
+  </si>
+  <si>
+    <t>59999243081</t>
+  </si>
+  <si>
+    <t>EESSBT</t>
+  </si>
+  <si>
+    <t>59999661259</t>
+  </si>
+  <si>
+    <t>LNGOHK</t>
+  </si>
+  <si>
+    <t>59999392457</t>
+  </si>
+  <si>
+    <t>AELECG</t>
+  </si>
+  <si>
+    <t>59999567532</t>
+  </si>
+  <si>
+    <t>REGHBT</t>
+  </si>
+  <si>
+    <t>59999446844</t>
+  </si>
+  <si>
+    <t>JCEGNU</t>
+  </si>
+  <si>
+    <t>59999676644</t>
+  </si>
+  <si>
+    <t>JNLMGP</t>
+  </si>
+  <si>
+    <t>59999449399</t>
+  </si>
+  <si>
+    <t>KAITNH</t>
+  </si>
+  <si>
+    <t>59999022115</t>
+  </si>
+  <si>
+    <t>KQPCCP</t>
+  </si>
+  <si>
+    <t>59999801337</t>
+  </si>
+  <si>
+    <t>NFHSIA</t>
+  </si>
+  <si>
+    <t>176.0</t>
+  </si>
+  <si>
+    <t>335577019133947746</t>
+  </si>
+  <si>
+    <t>ICIC92410074135</t>
+  </si>
+  <si>
+    <t>ICIC92478762541</t>
+  </si>
+  <si>
+    <t>9866502652</t>
+  </si>
+  <si>
+    <t>Indrani</t>
+  </si>
+  <si>
+    <t>GiaanSem38643@example.net</t>
+  </si>
+  <si>
+    <t>1982-01-10</t>
+  </si>
+  <si>
+    <t>285893921685784</t>
+  </si>
+  <si>
+    <t>d9ae70ac83f53ec1</t>
+  </si>
+  <si>
+    <t>023615771595566</t>
+  </si>
+  <si>
+    <t>IDEP516738788826F7DV</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>59999246704</t>
+  </si>
+  <si>
+    <t>IFAGSK</t>
+  </si>
+  <si>
+    <t>BNPL5761388957317312</t>
+  </si>
+  <si>
+    <t>59999564191</t>
+  </si>
+  <si>
+    <t>KOENJI</t>
+  </si>
+  <si>
+    <t>59999800435</t>
+  </si>
+  <si>
+    <t>EQQHOD</t>
+  </si>
+  <si>
+    <t>59999663430</t>
+  </si>
+  <si>
+    <t>QJOQAI</t>
+  </si>
+  <si>
+    <t>59999174058</t>
+  </si>
+  <si>
+    <t>PHBLNH</t>
+  </si>
+  <si>
+    <t>59999936389</t>
+  </si>
+  <si>
+    <t>LJQKMF</t>
+  </si>
+  <si>
+    <t>59999325697</t>
+  </si>
+  <si>
+    <t>QEEJCT</t>
+  </si>
+  <si>
+    <t>59999299889</t>
+  </si>
+  <si>
+    <t>NOOTDU</t>
+  </si>
+  <si>
+    <t>59999122139</t>
+  </si>
+  <si>
+    <t>SNFLEJ</t>
+  </si>
+  <si>
+    <t>59999585276</t>
+  </si>
+  <si>
+    <t>JDIOJG</t>
+  </si>
+  <si>
+    <t>148.0</t>
+  </si>
+  <si>
+    <t>335577019866502652</t>
+  </si>
+  <si>
+    <t>ICIC81362476544</t>
+  </si>
+  <si>
+    <t>ICIC96293605516</t>
+  </si>
+  <si>
+    <t>8239417132</t>
+  </si>
+  <si>
+    <t>SidSachdeva64793@example.net</t>
+  </si>
+  <si>
+    <t>1985-01-31</t>
+  </si>
+  <si>
+    <t>366483504957230</t>
+  </si>
+  <si>
+    <t>d25eb99f3d3276c5</t>
+  </si>
+  <si>
+    <t>526648765445284</t>
+  </si>
+  <si>
+    <t>IDEP675133189254ES21</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>59999977976</t>
+  </si>
+  <si>
+    <t>IDHTJM</t>
+  </si>
+  <si>
+    <t>BNPL6175333312546817</t>
+  </si>
+  <si>
+    <t>59999201907</t>
+  </si>
+  <si>
+    <t>ADQDOT</t>
+  </si>
+  <si>
+    <t>59999662344</t>
+  </si>
+  <si>
+    <t>KRAMKG</t>
+  </si>
+  <si>
+    <t>59999891459</t>
+  </si>
+  <si>
+    <t>JKQJIM</t>
+  </si>
+  <si>
+    <t>59999665827</t>
+  </si>
+  <si>
+    <t>FGERJI</t>
+  </si>
+  <si>
+    <t>59999618010</t>
+  </si>
+  <si>
+    <t>OIJDRM</t>
+  </si>
+  <si>
+    <t>59999988316</t>
+  </si>
+  <si>
+    <t>JOGJGR</t>
+  </si>
+  <si>
+    <t>59999077525</t>
+  </si>
+  <si>
+    <t>OLIIHG</t>
+  </si>
+  <si>
+    <t>59999019864</t>
+  </si>
+  <si>
+    <t>PTEQFS</t>
+  </si>
+  <si>
+    <t>59999772004</t>
+  </si>
+  <si>
+    <t>LIOLFI</t>
+  </si>
+  <si>
+    <t>112.0</t>
+  </si>
+  <si>
+    <t>335577018239417132</t>
+  </si>
+  <si>
+    <t>ICIC95469966165</t>
+  </si>
+  <si>
+    <t>ICIC92401498930</t>
   </si>
 </sst>
 </file>
@@ -3297,7 +4257,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>885</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -3417,22 +4377,22 @@
         <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>892</v>
+        <v>1211</v>
       </c>
       <c r="C2" t="s">
-        <v>391</v>
+        <v>655</v>
       </c>
       <c r="D2" t="s">
         <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>913</v>
+        <v>1233</v>
       </c>
       <c r="F2" t="s">
         <v>243</v>
       </c>
       <c r="G2" t="s">
-        <v>914</v>
+        <v>1234</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -3769,7 +4729,7 @@
         <v>152</v>
       </c>
       <c r="B2" t="s">
-        <v>896</v>
+        <v>1216</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>155</v>
@@ -3866,16 +4826,16 @@
         <v>156</v>
       </c>
       <c r="B2" t="s">
-        <v>890</v>
+        <v>1209</v>
       </c>
       <c r="C2" t="s">
-        <v>891</v>
+        <v>1210</v>
       </c>
       <c r="D2" t="s">
         <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>889</v>
+        <v>1208</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -3978,7 +4938,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>916</v>
+        <v>1236</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>173</v>
@@ -3990,7 +4950,7 @@
         <v>174</v>
       </c>
       <c r="G2" t="s">
-        <v>917</v>
+        <v>1237</v>
       </c>
       <c r="H2" s="21">
         <v>44798.630833333336</v>
@@ -3999,7 +4959,7 @@
         <v>175</v>
       </c>
       <c r="J2" t="n">
-        <v>193.0</v>
+        <v>123.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -4861,13 +5821,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>886</v>
+        <v>307</v>
       </c>
       <c r="E2" t="s">
-        <v>887</v>
+        <v>1206</v>
       </c>
       <c r="F2" t="s">
-        <v>888</v>
+        <v>1207</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>219</v>
@@ -5301,7 +6261,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>916</v>
+        <v>1236</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>173</v>
@@ -5313,7 +6273,7 @@
         <v>181</v>
       </c>
       <c r="G2" t="s">
-        <v>918</v>
+        <v>1238</v>
       </c>
       <c r="H2" s="21">
         <v>44798.630833333336</v>
@@ -5322,7 +6282,7 @@
         <v>175</v>
       </c>
       <c r="J2" t="n">
-        <v>193.0</v>
+        <v>123.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -5449,10 +6409,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>885</v>
+        <v>1205</v>
       </c>
       <c r="E2" t="s">
-        <v>887</v>
+        <v>1206</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>63</v>
@@ -5464,7 +6424,7 @@
         <v>65</v>
       </c>
       <c r="I2" t="s">
-        <v>889</v>
+        <v>1208</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>66</v>
@@ -5473,10 +6433,10 @@
         <v>67</v>
       </c>
       <c r="L2" t="s">
-        <v>892</v>
+        <v>1211</v>
       </c>
       <c r="M2" t="n">
-        <v>4225413.0</v>
+        <v>4233486.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>68</v>
@@ -5536,7 +6496,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>885</v>
+        <v>1205</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -5553,7 +6513,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>885</v>
+        <v>1205</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -5570,7 +6530,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>885</v>
+        <v>1205</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -5587,7 +6547,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>885</v>
+        <v>1205</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -5604,7 +6564,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>885</v>
+        <v>1205</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -5773,7 +6733,7 @@
         <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>889</v>
+        <v>1208</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -6017,7 +6977,7 @@
         <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>889</v>
+        <v>1208</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>66</v>
@@ -6232,7 +7192,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>886</v>
+        <v>307</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>103</v>
@@ -6315,7 +7275,7 @@
         <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>892</v>
+        <v>1211</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>109</v>
@@ -6613,7 +7573,7 @@
         <v>213</v>
       </c>
       <c r="B2" t="s">
-        <v>892</v>
+        <v>1211</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -6633,7 +7593,7 @@
         <v>215</v>
       </c>
       <c r="B3" t="s">
-        <v>892</v>
+        <v>1211</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -6653,7 +7613,7 @@
         <v>222</v>
       </c>
       <c r="B4" t="s">
-        <v>892</v>
+        <v>1211</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -6673,7 +7633,7 @@
         <v>223</v>
       </c>
       <c r="B5" t="s">
-        <v>892</v>
+        <v>1211</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -6693,7 +7653,7 @@
         <v>224</v>
       </c>
       <c r="B6" t="s">
-        <v>892</v>
+        <v>1211</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -6713,7 +7673,7 @@
         <v>225</v>
       </c>
       <c r="B7" t="s">
-        <v>892</v>
+        <v>1211</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -6733,7 +7693,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>892</v>
+        <v>1211</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -6792,7 +7752,7 @@
         <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>391</v>
+        <v>655</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>238</v>
@@ -6806,7 +7766,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>391</v>
+        <v>655</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>238</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PromoCode_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3468" uniqueCount="1239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4851" uniqueCount="1747">
   <si>
     <t>TestCases</t>
   </si>
@@ -3762,6 +3762,1530 @@
   </si>
   <si>
     <t>ICIC92401498930</t>
+  </si>
+  <si>
+    <t>7864638401</t>
+  </si>
+  <si>
+    <t>AbhishekTailor25637@example.net</t>
+  </si>
+  <si>
+    <t>1990-08-07</t>
+  </si>
+  <si>
+    <t>581880965143920</t>
+  </si>
+  <si>
+    <t>d64e03e186527515</t>
+  </si>
+  <si>
+    <t>137287263966987</t>
+  </si>
+  <si>
+    <t>8956688522</t>
+  </si>
+  <si>
+    <t>Sushmita</t>
+  </si>
+  <si>
+    <t>SuryaKarpe59627@example.net</t>
+  </si>
+  <si>
+    <t>1975-06-10</t>
+  </si>
+  <si>
+    <t>912130168658989</t>
+  </si>
+  <si>
+    <t>222c94f1b34d5994</t>
+  </si>
+  <si>
+    <t>855277129169991</t>
+  </si>
+  <si>
+    <t>8186206964</t>
+  </si>
+  <si>
+    <t>Basanti</t>
+  </si>
+  <si>
+    <t>WafiqGagrani79937@example.net</t>
+  </si>
+  <si>
+    <t>1982-05-06</t>
+  </si>
+  <si>
+    <t>141806185121159</t>
+  </si>
+  <si>
+    <t>d754dcfab20e4a95</t>
+  </si>
+  <si>
+    <t>165505427713895</t>
+  </si>
+  <si>
+    <t>IDEP617583727886QY1S</t>
+  </si>
+  <si>
+    <t>7951598083</t>
+  </si>
+  <si>
+    <t>Poonam</t>
+  </si>
+  <si>
+    <t>ChiragWali31840@example.net</t>
+  </si>
+  <si>
+    <t>1986-02-04</t>
+  </si>
+  <si>
+    <t>293173704204370</t>
+  </si>
+  <si>
+    <t>bca95cde1cc39e95</t>
+  </si>
+  <si>
+    <t>649891885969914</t>
+  </si>
+  <si>
+    <t>IDEP716584813398WTCS</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>59999551364</t>
+  </si>
+  <si>
+    <t>BNUFFN</t>
+  </si>
+  <si>
+    <t>59999723569</t>
+  </si>
+  <si>
+    <t>JRGPNE</t>
+  </si>
+  <si>
+    <t>59999075014</t>
+  </si>
+  <si>
+    <t>DSKILJ</t>
+  </si>
+  <si>
+    <t>59999548529</t>
+  </si>
+  <si>
+    <t>HSRPMB</t>
+  </si>
+  <si>
+    <t>59999949715</t>
+  </si>
+  <si>
+    <t>EBKRNI</t>
+  </si>
+  <si>
+    <t>59999198947</t>
+  </si>
+  <si>
+    <t>PLAEOO</t>
+  </si>
+  <si>
+    <t>59999740094</t>
+  </si>
+  <si>
+    <t>DJFDHQ</t>
+  </si>
+  <si>
+    <t>59999878444</t>
+  </si>
+  <si>
+    <t>GCBOBA</t>
+  </si>
+  <si>
+    <t>59999017066</t>
+  </si>
+  <si>
+    <t>DHLQOT</t>
+  </si>
+  <si>
+    <t>59999685078</t>
+  </si>
+  <si>
+    <t>MJPRUM</t>
+  </si>
+  <si>
+    <t>9666696182</t>
+  </si>
+  <si>
+    <t>Seema</t>
+  </si>
+  <si>
+    <t>SuryaSarraf97295@example.net</t>
+  </si>
+  <si>
+    <t>1992-10-30</t>
+  </si>
+  <si>
+    <t>978678533777729</t>
+  </si>
+  <si>
+    <t>f7e8440ab2ded0a2</t>
+  </si>
+  <si>
+    <t>702802925046716</t>
+  </si>
+  <si>
+    <t>IDEP165785317245JLVT</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>59999567399</t>
+  </si>
+  <si>
+    <t>DHRFIU</t>
+  </si>
+  <si>
+    <t>BNPL6175855865389615</t>
+  </si>
+  <si>
+    <t>59999409007</t>
+  </si>
+  <si>
+    <t>THDEBM</t>
+  </si>
+  <si>
+    <t>59999125890</t>
+  </si>
+  <si>
+    <t>AROTFM</t>
+  </si>
+  <si>
+    <t>59999633207</t>
+  </si>
+  <si>
+    <t>QHLAGD</t>
+  </si>
+  <si>
+    <t>59999938507</t>
+  </si>
+  <si>
+    <t>OPHECF</t>
+  </si>
+  <si>
+    <t>59999251675</t>
+  </si>
+  <si>
+    <t>PBPNBP</t>
+  </si>
+  <si>
+    <t>59999494083</t>
+  </si>
+  <si>
+    <t>TOSLIQ</t>
+  </si>
+  <si>
+    <t>59999463448</t>
+  </si>
+  <si>
+    <t>ETHKQK</t>
+  </si>
+  <si>
+    <t>59999426771</t>
+  </si>
+  <si>
+    <t>OQRTHC</t>
+  </si>
+  <si>
+    <t>59999228026</t>
+  </si>
+  <si>
+    <t>SAUINE</t>
+  </si>
+  <si>
+    <t>123.0</t>
+  </si>
+  <si>
+    <t>335577019666696182</t>
+  </si>
+  <si>
+    <t>ICIC89784508136</t>
+  </si>
+  <si>
+    <t>ICIC90230690246</t>
+  </si>
+  <si>
+    <t>7829164137</t>
+  </si>
+  <si>
+    <t>ObaidDin18241@example.net</t>
+  </si>
+  <si>
+    <t>1984-05-26</t>
+  </si>
+  <si>
+    <t>092919076241074</t>
+  </si>
+  <si>
+    <t>8490345b54ff81ef</t>
+  </si>
+  <si>
+    <t>071720818658038</t>
+  </si>
+  <si>
+    <t>IDEP165786878978YSH8</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>59999868053</t>
+  </si>
+  <si>
+    <t>KJDFRE</t>
+  </si>
+  <si>
+    <t>BNPL5167878422596741</t>
+  </si>
+  <si>
+    <t>59999080131</t>
+  </si>
+  <si>
+    <t>ONMIFT</t>
+  </si>
+  <si>
+    <t>59999252135</t>
+  </si>
+  <si>
+    <t>DJQHTM</t>
+  </si>
+  <si>
+    <t>59999412383</t>
+  </si>
+  <si>
+    <t>CCHCUG</t>
+  </si>
+  <si>
+    <t>59999306063</t>
+  </si>
+  <si>
+    <t>ODOGJM</t>
+  </si>
+  <si>
+    <t>59999807772</t>
+  </si>
+  <si>
+    <t>DTCTMP</t>
+  </si>
+  <si>
+    <t>59999121951</t>
+  </si>
+  <si>
+    <t>OTFDPL</t>
+  </si>
+  <si>
+    <t>59999542471</t>
+  </si>
+  <si>
+    <t>SCLOKP</t>
+  </si>
+  <si>
+    <t>59999265131</t>
+  </si>
+  <si>
+    <t>QUGSTK</t>
+  </si>
+  <si>
+    <t>59999400719</t>
+  </si>
+  <si>
+    <t>SEMOOE</t>
+  </si>
+  <si>
+    <t>335577017829164137</t>
+  </si>
+  <si>
+    <t>ICIC97915922218</t>
+  </si>
+  <si>
+    <t>ICIC88965812078</t>
+  </si>
+  <si>
+    <t>7916865730</t>
+  </si>
+  <si>
+    <t>Laveena</t>
+  </si>
+  <si>
+    <t>AnimeshDalal39307@example.net</t>
+  </si>
+  <si>
+    <t>1994-01-04</t>
+  </si>
+  <si>
+    <t>241994875428859</t>
+  </si>
+  <si>
+    <t>a15cf4be406eac42</t>
+  </si>
+  <si>
+    <t>207803309490736</t>
+  </si>
+  <si>
+    <t>6696910481</t>
+  </si>
+  <si>
+    <t>Pooja</t>
+  </si>
+  <si>
+    <t>PirzadaMinhas44444@example.net</t>
+  </si>
+  <si>
+    <t>1983-12-16</t>
+  </si>
+  <si>
+    <t>221018325138639</t>
+  </si>
+  <si>
+    <t>5106d757fbe0789d</t>
+  </si>
+  <si>
+    <t>359390698023357</t>
+  </si>
+  <si>
+    <t>IDEP157687354246UQ5T</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>59999305598</t>
+  </si>
+  <si>
+    <t>NPMCJH</t>
+  </si>
+  <si>
+    <t>BNPL6751875277845827</t>
+  </si>
+  <si>
+    <t>59999188668</t>
+  </si>
+  <si>
+    <t>URTIQQ</t>
+  </si>
+  <si>
+    <t>59999942175</t>
+  </si>
+  <si>
+    <t>KTTTMH</t>
+  </si>
+  <si>
+    <t>59999633774</t>
+  </si>
+  <si>
+    <t>GDEOCJ</t>
+  </si>
+  <si>
+    <t>59999926016</t>
+  </si>
+  <si>
+    <t>IUHLUB</t>
+  </si>
+  <si>
+    <t>59999481566</t>
+  </si>
+  <si>
+    <t>DFHPTA</t>
+  </si>
+  <si>
+    <t>59999100935</t>
+  </si>
+  <si>
+    <t>GHDICF</t>
+  </si>
+  <si>
+    <t>59999770909</t>
+  </si>
+  <si>
+    <t>TQUUDU</t>
+  </si>
+  <si>
+    <t>59999235861</t>
+  </si>
+  <si>
+    <t>LUQMTK</t>
+  </si>
+  <si>
+    <t>59999808718</t>
+  </si>
+  <si>
+    <t>JRDOBC</t>
+  </si>
+  <si>
+    <t>111.0</t>
+  </si>
+  <si>
+    <t>335577016696910481</t>
+  </si>
+  <si>
+    <t>ICIC85989354007</t>
+  </si>
+  <si>
+    <t>ICIC80250276989</t>
+  </si>
+  <si>
+    <t>6730393888</t>
+  </si>
+  <si>
+    <t>Mukti</t>
+  </si>
+  <si>
+    <t>AlbertApte83438@example.net</t>
+  </si>
+  <si>
+    <t>1989-10-24</t>
+  </si>
+  <si>
+    <t>565762169031186</t>
+  </si>
+  <si>
+    <t>aebcf32329d11955</t>
+  </si>
+  <si>
+    <t>137445359284521</t>
+  </si>
+  <si>
+    <t>IDEP765188457521TQ9C</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>59999620453</t>
+  </si>
+  <si>
+    <t>ALTLID</t>
+  </si>
+  <si>
+    <t>BNPL5617886477294356</t>
+  </si>
+  <si>
+    <t>59999230464</t>
+  </si>
+  <si>
+    <t>OGAAGF</t>
+  </si>
+  <si>
+    <t>59999613021</t>
+  </si>
+  <si>
+    <t>ECFURJ</t>
+  </si>
+  <si>
+    <t>59999638871</t>
+  </si>
+  <si>
+    <t>EBBJLP</t>
+  </si>
+  <si>
+    <t>59999104262</t>
+  </si>
+  <si>
+    <t>QEJUNP</t>
+  </si>
+  <si>
+    <t>59999874351</t>
+  </si>
+  <si>
+    <t>OALAIT</t>
+  </si>
+  <si>
+    <t>59999235735</t>
+  </si>
+  <si>
+    <t>DKBPGA</t>
+  </si>
+  <si>
+    <t>59999633071</t>
+  </si>
+  <si>
+    <t>GKORIR</t>
+  </si>
+  <si>
+    <t>59999290412</t>
+  </si>
+  <si>
+    <t>HBCIUH</t>
+  </si>
+  <si>
+    <t>59999755146</t>
+  </si>
+  <si>
+    <t>EMQPJA</t>
+  </si>
+  <si>
+    <t>160.0</t>
+  </si>
+  <si>
+    <t>335577016730393888</t>
+  </si>
+  <si>
+    <t>ICIC95317867920</t>
+  </si>
+  <si>
+    <t>ICIC87931091679</t>
+  </si>
+  <si>
+    <t>8491356096</t>
+  </si>
+  <si>
+    <t>DhanushSampath58731@example.net</t>
+  </si>
+  <si>
+    <t>1982-01-27</t>
+  </si>
+  <si>
+    <t>351958898894328</t>
+  </si>
+  <si>
+    <t>e6911a7b28b75145</t>
+  </si>
+  <si>
+    <t>227414301084141</t>
+  </si>
+  <si>
+    <t>IDEP516789397756S6TX</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>59999303320</t>
+  </si>
+  <si>
+    <t>DELPKN</t>
+  </si>
+  <si>
+    <t>BNPL7615895886456784</t>
+  </si>
+  <si>
+    <t>59999120410</t>
+  </si>
+  <si>
+    <t>GHQOPD</t>
+  </si>
+  <si>
+    <t>59999077259</t>
+  </si>
+  <si>
+    <t>HBRIPC</t>
+  </si>
+  <si>
+    <t>59999932185</t>
+  </si>
+  <si>
+    <t>GGDELB</t>
+  </si>
+  <si>
+    <t>59999526698</t>
+  </si>
+  <si>
+    <t>AADDOI</t>
+  </si>
+  <si>
+    <t>59999274220</t>
+  </si>
+  <si>
+    <t>RGDIGE</t>
+  </si>
+  <si>
+    <t>59999807773</t>
+  </si>
+  <si>
+    <t>DBEQKM</t>
+  </si>
+  <si>
+    <t>59999367647</t>
+  </si>
+  <si>
+    <t>SIRRHU</t>
+  </si>
+  <si>
+    <t>59999646185</t>
+  </si>
+  <si>
+    <t>SAQJCM</t>
+  </si>
+  <si>
+    <t>59999149008</t>
+  </si>
+  <si>
+    <t>CIFPLK</t>
+  </si>
+  <si>
+    <t>165.0</t>
+  </si>
+  <si>
+    <t>335577018491356096</t>
+  </si>
+  <si>
+    <t>ICIC87108213099</t>
+  </si>
+  <si>
+    <t>ICIC86256599725</t>
+  </si>
+  <si>
+    <t>7381725666</t>
+  </si>
+  <si>
+    <t>Narmada</t>
+  </si>
+  <si>
+    <t>NeerendraBhagat54747@example.net</t>
+  </si>
+  <si>
+    <t>1974-03-06</t>
+  </si>
+  <si>
+    <t>142634972917244</t>
+  </si>
+  <si>
+    <t>1e94977b3d5ff874</t>
+  </si>
+  <si>
+    <t>095803301986678</t>
+  </si>
+  <si>
+    <t>8455677942</t>
+  </si>
+  <si>
+    <t>Maya</t>
+  </si>
+  <si>
+    <t>AdityaPrabhakar28686@example.net</t>
+  </si>
+  <si>
+    <t>1985-07-25</t>
+  </si>
+  <si>
+    <t>424369351093015</t>
+  </si>
+  <si>
+    <t>19f2dbac1923cc13</t>
+  </si>
+  <si>
+    <t>016716381093320</t>
+  </si>
+  <si>
+    <t>6227353688</t>
+  </si>
+  <si>
+    <t>Prerna</t>
+  </si>
+  <si>
+    <t>RahimBhalla44829@example.net</t>
+  </si>
+  <si>
+    <t>1980-09-30</t>
+  </si>
+  <si>
+    <t>117602345584836</t>
+  </si>
+  <si>
+    <t>ba30d3b363203c43</t>
+  </si>
+  <si>
+    <t>833769558895481</t>
+  </si>
+  <si>
+    <t>IDEP7561165138948HDM</t>
+  </si>
+  <si>
+    <t>9387968872</t>
+  </si>
+  <si>
+    <t>Alka</t>
+  </si>
+  <si>
+    <t>BahadurYogi71139@example.net</t>
+  </si>
+  <si>
+    <t>1986-04-14</t>
+  </si>
+  <si>
+    <t>746646131064288</t>
+  </si>
+  <si>
+    <t>d974171c70f8d18f</t>
+  </si>
+  <si>
+    <t>798630560576191</t>
+  </si>
+  <si>
+    <t>IDEP175616654587FSW4</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>bnpl59999465280</t>
+  </si>
+  <si>
+    <t>DGGKUG</t>
+  </si>
+  <si>
+    <t>BNPL5617167187859413</t>
+  </si>
+  <si>
+    <t>bnpl59999174552</t>
+  </si>
+  <si>
+    <t>BPDDLD</t>
+  </si>
+  <si>
+    <t>bnpl59999500520</t>
+  </si>
+  <si>
+    <t>MDSJMC</t>
+  </si>
+  <si>
+    <t>bnpl59999346437</t>
+  </si>
+  <si>
+    <t>HIOAJT</t>
+  </si>
+  <si>
+    <t>bnpl59999426322</t>
+  </si>
+  <si>
+    <t>NNCKIL</t>
+  </si>
+  <si>
+    <t>bnpl59999472739</t>
+  </si>
+  <si>
+    <t>FRAGNA</t>
+  </si>
+  <si>
+    <t>bnpl59999082615</t>
+  </si>
+  <si>
+    <t>DAEDIC</t>
+  </si>
+  <si>
+    <t>bnpl59999573613</t>
+  </si>
+  <si>
+    <t>EPRNDN</t>
+  </si>
+  <si>
+    <t>bnpl59999380100</t>
+  </si>
+  <si>
+    <t>REAFPM</t>
+  </si>
+  <si>
+    <t>bnpl59999088531</t>
+  </si>
+  <si>
+    <t>PFFMIE</t>
+  </si>
+  <si>
+    <t>127.0</t>
+  </si>
+  <si>
+    <t>335577016227353688</t>
+  </si>
+  <si>
+    <t>ICIC85949820083</t>
+  </si>
+  <si>
+    <t>ICIC82842303794</t>
+  </si>
+  <si>
+    <t>bnpl59999190182</t>
+  </si>
+  <si>
+    <t>LDUBBI</t>
+  </si>
+  <si>
+    <t>BNPL5761168473156543</t>
+  </si>
+  <si>
+    <t>bnpl59999847501</t>
+  </si>
+  <si>
+    <t>NNNMSL</t>
+  </si>
+  <si>
+    <t>bnpl59999630111</t>
+  </si>
+  <si>
+    <t>UQKTJD</t>
+  </si>
+  <si>
+    <t>bnpl59999419441</t>
+  </si>
+  <si>
+    <t>AULCML</t>
+  </si>
+  <si>
+    <t>bnpl59999283019</t>
+  </si>
+  <si>
+    <t>NNDJQQ</t>
+  </si>
+  <si>
+    <t>bnpl59999634611</t>
+  </si>
+  <si>
+    <t>LNRTNB</t>
+  </si>
+  <si>
+    <t>bnpl59999692205</t>
+  </si>
+  <si>
+    <t>BGKKJD</t>
+  </si>
+  <si>
+    <t>bnpl59999935109</t>
+  </si>
+  <si>
+    <t>KIFTMB</t>
+  </si>
+  <si>
+    <t>bnpl59999810695</t>
+  </si>
+  <si>
+    <t>JFEKMK</t>
+  </si>
+  <si>
+    <t>bnpl59999648846</t>
+  </si>
+  <si>
+    <t>GUJQIU</t>
+  </si>
+  <si>
+    <t>109.0</t>
+  </si>
+  <si>
+    <t>335577019387968872</t>
+  </si>
+  <si>
+    <t>ICIC83393095153</t>
+  </si>
+  <si>
+    <t>ICIC90904821105</t>
+  </si>
+  <si>
+    <t>7843938092</t>
+  </si>
+  <si>
+    <t>Sneha</t>
+  </si>
+  <si>
+    <t>FerozMand90162@example.net</t>
+  </si>
+  <si>
+    <t>1977-09-04</t>
+  </si>
+  <si>
+    <t>622681649055576</t>
+  </si>
+  <si>
+    <t>384fc12857f89b7b</t>
+  </si>
+  <si>
+    <t>184710825343082</t>
+  </si>
+  <si>
+    <t>IDEP1756169476962HKX</t>
+  </si>
+  <si>
+    <t>bnpl59999142919</t>
+  </si>
+  <si>
+    <t>QMJHLD</t>
+  </si>
+  <si>
+    <t>BNPL1567171375519541</t>
+  </si>
+  <si>
+    <t>bnpl59999567030</t>
+  </si>
+  <si>
+    <t>AJKEFM</t>
+  </si>
+  <si>
+    <t>bnpl59999311809</t>
+  </si>
+  <si>
+    <t>UDPQKI</t>
+  </si>
+  <si>
+    <t>bnpl59999653273</t>
+  </si>
+  <si>
+    <t>GEUMBD</t>
+  </si>
+  <si>
+    <t>bnpl59999986613</t>
+  </si>
+  <si>
+    <t>BBEMOG</t>
+  </si>
+  <si>
+    <t>bnpl59999030412</t>
+  </si>
+  <si>
+    <t>GMPCSG</t>
+  </si>
+  <si>
+    <t>bnpl59999219652</t>
+  </si>
+  <si>
+    <t>RUEQEB</t>
+  </si>
+  <si>
+    <t>bnpl59999883587</t>
+  </si>
+  <si>
+    <t>ADAIUB</t>
+  </si>
+  <si>
+    <t>bnpl59999695466</t>
+  </si>
+  <si>
+    <t>SSPSQE</t>
+  </si>
+  <si>
+    <t>bnpl59999087592</t>
+  </si>
+  <si>
+    <t>MAGTBI</t>
+  </si>
+  <si>
+    <t>116.0</t>
+  </si>
+  <si>
+    <t>335577017843938092</t>
+  </si>
+  <si>
+    <t>ICIC97568559446</t>
+  </si>
+  <si>
+    <t>ICIC81415593571</t>
+  </si>
+  <si>
+    <t>8439821171</t>
+  </si>
+  <si>
+    <t>Nupur</t>
+  </si>
+  <si>
+    <t>AbbasKarnik96472@example.net</t>
+  </si>
+  <si>
+    <t>1992-07-18</t>
+  </si>
+  <si>
+    <t>837078328121301</t>
+  </si>
+  <si>
+    <t>5d31832bbdeb2161</t>
+  </si>
+  <si>
+    <t>468157508420604</t>
+  </si>
+  <si>
+    <t>IDEP156717883847IFSU</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>bnpl59999870167</t>
+  </si>
+  <si>
+    <t>BGQFDA</t>
+  </si>
+  <si>
+    <t>BNPL7516188884379263</t>
+  </si>
+  <si>
+    <t>bnpl59999318038</t>
+  </si>
+  <si>
+    <t>CKQITJ</t>
+  </si>
+  <si>
+    <t>bnpl59999050956</t>
+  </si>
+  <si>
+    <t>GQURUE</t>
+  </si>
+  <si>
+    <t>bnpl59999100895</t>
+  </si>
+  <si>
+    <t>MLHSCJ</t>
+  </si>
+  <si>
+    <t>bnpl59999424832</t>
+  </si>
+  <si>
+    <t>FSJSMG</t>
+  </si>
+  <si>
+    <t>bnpl59999533634</t>
+  </si>
+  <si>
+    <t>JCBPDU</t>
+  </si>
+  <si>
+    <t>bnpl59999246756</t>
+  </si>
+  <si>
+    <t>QSQLSP</t>
+  </si>
+  <si>
+    <t>bnpl59999188132</t>
+  </si>
+  <si>
+    <t>JQJPLO</t>
+  </si>
+  <si>
+    <t>bnpl59999103457</t>
+  </si>
+  <si>
+    <t>UCLBNL</t>
+  </si>
+  <si>
+    <t>bnpl59999573648</t>
+  </si>
+  <si>
+    <t>TKMJOA</t>
+  </si>
+  <si>
+    <t>125.0</t>
+  </si>
+  <si>
+    <t>335577018439821171</t>
+  </si>
+  <si>
+    <t>ICIC89643633887</t>
+  </si>
+  <si>
+    <t>ICIC93499705591</t>
+  </si>
+  <si>
+    <t>7759573326</t>
+  </si>
+  <si>
+    <t>MohanSwaminathan44291@example.net</t>
+  </si>
+  <si>
+    <t>1977-05-17</t>
+  </si>
+  <si>
+    <t>795020924389932</t>
+  </si>
+  <si>
+    <t>be51d1e555e12afa</t>
+  </si>
+  <si>
+    <t>562251118169159</t>
+  </si>
+  <si>
+    <t>IDEP1657189818126Y21</t>
+  </si>
+  <si>
+    <t>bnpl59999465165</t>
+  </si>
+  <si>
+    <t>UPKCMI</t>
+  </si>
+  <si>
+    <t>BNPL5716191774225289</t>
+  </si>
+  <si>
+    <t>bnpl59999342084</t>
+  </si>
+  <si>
+    <t>LHCHIF</t>
+  </si>
+  <si>
+    <t>bnpl59999899090</t>
+  </si>
+  <si>
+    <t>LNHLMK</t>
+  </si>
+  <si>
+    <t>bnpl59999621194</t>
+  </si>
+  <si>
+    <t>RQMJJR</t>
+  </si>
+  <si>
+    <t>bnpl59999538410</t>
+  </si>
+  <si>
+    <t>HDKEEJ</t>
+  </si>
+  <si>
+    <t>bnpl59999347358</t>
+  </si>
+  <si>
+    <t>GJCLOP</t>
+  </si>
+  <si>
+    <t>bnpl59999089998</t>
+  </si>
+  <si>
+    <t>BODDLS</t>
+  </si>
+  <si>
+    <t>bnpl59999328268</t>
+  </si>
+  <si>
+    <t>TDOITC</t>
+  </si>
+  <si>
+    <t>bnpl59999985089</t>
+  </si>
+  <si>
+    <t>PNUPBB</t>
+  </si>
+  <si>
+    <t>bnpl59999894790</t>
+  </si>
+  <si>
+    <t>NTEHLR</t>
+  </si>
+  <si>
+    <t>103.0</t>
+  </si>
+  <si>
+    <t>335577017759573326</t>
+  </si>
+  <si>
+    <t>ICIC82483547281</t>
+  </si>
+  <si>
+    <t>ICIC83867534628</t>
+  </si>
+  <si>
+    <t>6351865766</t>
+  </si>
+  <si>
+    <t>Veena</t>
+  </si>
+  <si>
+    <t>PreetOak22138@example.net</t>
+  </si>
+  <si>
+    <t>1971-10-05</t>
+  </si>
+  <si>
+    <t>558548978452864</t>
+  </si>
+  <si>
+    <t>de6950e4e2192a25</t>
+  </si>
+  <si>
+    <t>347920884910887</t>
+  </si>
+  <si>
+    <t>IDEP567128528848JV1B</t>
+  </si>
+  <si>
+    <t>bnpl59999030467</t>
+  </si>
+  <si>
+    <t>FEUQRA</t>
+  </si>
+  <si>
+    <t>BNPL6157287196144513</t>
+  </si>
+  <si>
+    <t>bnpl59999033531</t>
+  </si>
+  <si>
+    <t>DMLTIP</t>
+  </si>
+  <si>
+    <t>bnpl59999799331</t>
+  </si>
+  <si>
+    <t>GJOMPS</t>
+  </si>
+  <si>
+    <t>bnpl59999878964</t>
+  </si>
+  <si>
+    <t>MFDRPT</t>
+  </si>
+  <si>
+    <t>bnpl59999793902</t>
+  </si>
+  <si>
+    <t>ASGISN</t>
+  </si>
+  <si>
+    <t>bnpl59999065762</t>
+  </si>
+  <si>
+    <t>PSJSGG</t>
+  </si>
+  <si>
+    <t>bnpl59999218281</t>
+  </si>
+  <si>
+    <t>JDPACI</t>
+  </si>
+  <si>
+    <t>bnpl59999058858</t>
+  </si>
+  <si>
+    <t>BISSIA</t>
+  </si>
+  <si>
+    <t>bnpl59999979638</t>
+  </si>
+  <si>
+    <t>OIOEDJ</t>
+  </si>
+  <si>
+    <t>bnpl59999096572</t>
+  </si>
+  <si>
+    <t>AMEDFU</t>
+  </si>
+  <si>
+    <t>137.0</t>
+  </si>
+  <si>
+    <t>335577016351865766</t>
+  </si>
+  <si>
+    <t>ICIC91534772834</t>
+  </si>
+  <si>
+    <t>ICIC97905025596</t>
+  </si>
+  <si>
+    <t>7912412324</t>
+  </si>
+  <si>
+    <t>Sabina</t>
+  </si>
+  <si>
+    <t>RamRatta36082@example.net</t>
+  </si>
+  <si>
+    <t>1988-08-11</t>
+  </si>
+  <si>
+    <t>607858176285391</t>
+  </si>
+  <si>
+    <t>a7babb1deed1602e</t>
+  </si>
+  <si>
+    <t>369751863778752</t>
+  </si>
+  <si>
+    <t>IDEP175621533728OTMY</t>
+  </si>
+  <si>
+    <t>bnpl59999675379</t>
+  </si>
+  <si>
+    <t>IFIQRP</t>
+  </si>
+  <si>
+    <t>BNPL7156217363193548</t>
+  </si>
+  <si>
+    <t>bnpl59999295295</t>
+  </si>
+  <si>
+    <t>NKIQAH</t>
+  </si>
+  <si>
+    <t>bnpl59999540612</t>
+  </si>
+  <si>
+    <t>NHABPO</t>
+  </si>
+  <si>
+    <t>bnpl59999206683</t>
+  </si>
+  <si>
+    <t>TCUGUB</t>
+  </si>
+  <si>
+    <t>bnpl59999722881</t>
+  </si>
+  <si>
+    <t>SRMSFB</t>
+  </si>
+  <si>
+    <t>bnpl59999809639</t>
+  </si>
+  <si>
+    <t>LFTARB</t>
+  </si>
+  <si>
+    <t>bnpl59999424257</t>
+  </si>
+  <si>
+    <t>EFGQFL</t>
+  </si>
+  <si>
+    <t>bnpl59999010117</t>
+  </si>
+  <si>
+    <t>BMEEHD</t>
+  </si>
+  <si>
+    <t>bnpl59999981635</t>
+  </si>
+  <si>
+    <t>QJNTCQ</t>
+  </si>
+  <si>
+    <t>bnpl59999687344</t>
+  </si>
+  <si>
+    <t>OEJTLB</t>
+  </si>
+  <si>
+    <t>105.0</t>
+  </si>
+  <si>
+    <t>335577017912412324</t>
+  </si>
+  <si>
+    <t>ICIC90860404101</t>
+  </si>
+  <si>
+    <t>ICIC87944957890</t>
+  </si>
+  <si>
+    <t>9970872600</t>
+  </si>
+  <si>
+    <t>Nalini</t>
+  </si>
+  <si>
+    <t>KarimKumer74707@example.net</t>
+  </si>
+  <si>
+    <t>1980-11-28</t>
+  </si>
+  <si>
+    <t>051270746308151</t>
+  </si>
+  <si>
+    <t>fecb070d5ad22221</t>
+  </si>
+  <si>
+    <t>841367406267571</t>
+  </si>
+  <si>
+    <t>IDEP765122555384UWXV</t>
+  </si>
+  <si>
+    <t>bnpl59999576693</t>
+  </si>
+  <si>
+    <t>UHNFRC</t>
+  </si>
+  <si>
+    <t>BNPL5176227468923721</t>
+  </si>
+  <si>
+    <t>bnpl59999263113</t>
+  </si>
+  <si>
+    <t>RNLSCU</t>
+  </si>
+  <si>
+    <t>bnpl59999594734</t>
+  </si>
+  <si>
+    <t>BRPLSP</t>
+  </si>
+  <si>
+    <t>bnpl59999170464</t>
+  </si>
+  <si>
+    <t>MNHBMB</t>
+  </si>
+  <si>
+    <t>bnpl59999265858</t>
+  </si>
+  <si>
+    <t>PREGBD</t>
+  </si>
+  <si>
+    <t>bnpl59999678072</t>
+  </si>
+  <si>
+    <t>DKLLKR</t>
+  </si>
+  <si>
+    <t>bnpl59999748361</t>
+  </si>
+  <si>
+    <t>SEFRUM</t>
+  </si>
+  <si>
+    <t>bnpl59999648603</t>
+  </si>
+  <si>
+    <t>JLTHIR</t>
+  </si>
+  <si>
+    <t>bnpl59999953191</t>
+  </si>
+  <si>
+    <t>UPCBBH</t>
+  </si>
+  <si>
+    <t>bnpl59999434890</t>
+  </si>
+  <si>
+    <t>JPUMUP</t>
+  </si>
+  <si>
+    <t>133.0</t>
+  </si>
+  <si>
+    <t>335577019970872600</t>
+  </si>
+  <si>
+    <t>ICIC96209003190</t>
+  </si>
+  <si>
+    <t>ICIC81276243117</t>
   </si>
 </sst>
 </file>
@@ -4257,7 +5781,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>1205</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -4377,22 +5901,22 @@
         <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>1211</v>
+        <v>1721</v>
       </c>
       <c r="C2" t="s">
-        <v>655</v>
+        <v>1043</v>
       </c>
       <c r="D2" t="s">
         <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>1233</v>
+        <v>1741</v>
       </c>
       <c r="F2" t="s">
         <v>243</v>
       </c>
       <c r="G2" t="s">
-        <v>1234</v>
+        <v>1742</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -4729,7 +6253,7 @@
         <v>152</v>
       </c>
       <c r="B2" t="s">
-        <v>1216</v>
+        <v>1724</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>155</v>
@@ -4826,16 +6350,16 @@
         <v>156</v>
       </c>
       <c r="B2" t="s">
-        <v>1209</v>
+        <v>1719</v>
       </c>
       <c r="C2" t="s">
-        <v>1210</v>
+        <v>1720</v>
       </c>
       <c r="D2" t="s">
         <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>1208</v>
+        <v>1718</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -4938,7 +6462,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>1236</v>
+        <v>1744</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>173</v>
@@ -4950,7 +6474,7 @@
         <v>174</v>
       </c>
       <c r="G2" t="s">
-        <v>1237</v>
+        <v>1745</v>
       </c>
       <c r="H2" s="21">
         <v>44798.630833333336</v>
@@ -4959,7 +6483,7 @@
         <v>175</v>
       </c>
       <c r="J2" t="n">
-        <v>123.0</v>
+        <v>115.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -5821,13 +7345,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>307</v>
+        <v>1715</v>
       </c>
       <c r="E2" t="s">
-        <v>1206</v>
+        <v>1716</v>
       </c>
       <c r="F2" t="s">
-        <v>1207</v>
+        <v>1717</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>219</v>
@@ -6261,7 +7785,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>1236</v>
+        <v>1744</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>173</v>
@@ -6273,7 +7797,7 @@
         <v>181</v>
       </c>
       <c r="G2" t="s">
-        <v>1238</v>
+        <v>1746</v>
       </c>
       <c r="H2" s="21">
         <v>44798.630833333336</v>
@@ -6282,7 +7806,7 @@
         <v>175</v>
       </c>
       <c r="J2" t="n">
-        <v>123.0</v>
+        <v>115.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -6409,10 +7933,10 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>1205</v>
+        <v>1714</v>
       </c>
       <c r="E2" t="s">
-        <v>1206</v>
+        <v>1716</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>63</v>
@@ -6424,7 +7948,7 @@
         <v>65</v>
       </c>
       <c r="I2" t="s">
-        <v>1208</v>
+        <v>1718</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>66</v>
@@ -6433,10 +7957,10 @@
         <v>67</v>
       </c>
       <c r="L2" t="s">
-        <v>1211</v>
+        <v>1721</v>
       </c>
       <c r="M2" t="n">
-        <v>4233486.0</v>
+        <v>4234169.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>68</v>
@@ -6496,7 +8020,7 @@
         <v>888888</v>
       </c>
       <c r="C2" t="s">
-        <v>1205</v>
+        <v>1714</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -6513,7 +8037,7 @@
         <v>125111</v>
       </c>
       <c r="C3" t="s">
-        <v>1205</v>
+        <v>1714</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -6530,7 +8054,7 @@
         <v>555555</v>
       </c>
       <c r="C4" t="s">
-        <v>1205</v>
+        <v>1714</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -6547,7 +8071,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>1205</v>
+        <v>1714</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -6564,7 +8088,7 @@
         <v>789</v>
       </c>
       <c r="C6" t="s">
-        <v>1205</v>
+        <v>1714</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -6733,7 +8257,7 @@
         <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>1208</v>
+        <v>1718</v>
       </c>
       <c r="F2" s="14">
         <v>18.939800000000002</v>
@@ -6977,7 +8501,7 @@
         <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>1208</v>
+        <v>1718</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>66</v>
@@ -7192,7 +8716,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>307</v>
+        <v>1715</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>103</v>
@@ -7275,7 +8799,7 @@
         <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>1211</v>
+        <v>1721</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>109</v>
@@ -7573,7 +9097,7 @@
         <v>213</v>
       </c>
       <c r="B2" t="s">
-        <v>1211</v>
+        <v>1721</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -7593,7 +9117,7 @@
         <v>215</v>
       </c>
       <c r="B3" t="s">
-        <v>1211</v>
+        <v>1721</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -7613,7 +9137,7 @@
         <v>222</v>
       </c>
       <c r="B4" t="s">
-        <v>1211</v>
+        <v>1721</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -7633,7 +9157,7 @@
         <v>223</v>
       </c>
       <c r="B5" t="s">
-        <v>1211</v>
+        <v>1721</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -7653,7 +9177,7 @@
         <v>224</v>
       </c>
       <c r="B6" t="s">
-        <v>1211</v>
+        <v>1721</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -7673,7 +9197,7 @@
         <v>225</v>
       </c>
       <c r="B7" t="s">
-        <v>1211</v>
+        <v>1721</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -7693,7 +9217,7 @@
         <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>1211</v>
+        <v>1721</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -7752,7 +9276,7 @@
         <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>655</v>
+        <v>1043</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>238</v>
@@ -7766,7 +9290,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>655</v>
+        <v>1043</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>238</v>
